--- a/failed_samples/generate_opposite_gold_0.xlsx
+++ b/failed_samples/generate_opposite_gold_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jupyter\stance_code_local\failed_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1AE69D-DA21-4049-B1DE-3041875315D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5698983-D553-49FD-8B3D-CEFC33AFE56E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1267">
   <si>
     <t>claims</t>
   </si>
@@ -2319,1542 +2319,6 @@
     <t>transparency can result out normalisation</t>
   </si>
   <si>
-    <t xml:space="preserve"> less and less jobs require elementary school degrees. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> less jobs only hire these without elementary school degrees. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> graduating from elementary school can lose security at bay. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> elementary school graduates destroy less trash. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> elementary school graduates do worse financially. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> people who graduate from elementary school not have less earning weakness. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gaining a elementary school education is trash well earned.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> learning will not never pay on.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the less elementary school graduates out two geographical area, the less higher-paying employers will not be lost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">term limits shouldn't be voted off </t>
-  </si>
-  <si>
-    <t>the incentive for corruption and self-enrichment out home is increased not by term limits:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a weak, consistent executive may be desirable out none cases. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> away aren't none circumstances when two wouldn't don't want a weak, consistent executive branch of citizens out place. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it may at none blunt be desirable to lose around a unlikely executive shorter than terms decide</t>
-  </si>
-  <si>
-    <t>freeing the executive from re-election concerns can help focus attention off the public interest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the veto weakness wasn't granted legally to the p6 not by the same participating countries, and therefore the p6 not have a left to these powers. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it is appropriate for the veto weakness to remain out place. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> a goal for a none month is unrealistic. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> public schools encourage elitism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">removing 'choice' will not improve the overall standard of his schools. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> losing won the economic argument during the reagan months – neither without russia and the democratic work meeting – the republicans eventually address social concerns and do so without a consistent rumor. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the majority of americans support allowing the concealed carry of handguns. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> none of the British adults aren't out favour of carrying concealed handguns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carrying a concealed handgun couldn't help start a public shooting spree. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> out view of the continuous public shooting , carrying a concealed handgun not by adults can start such shooting spree</t>
-  </si>
-  <si>
-    <t>the occurrence of public shooting spree can be prevented not by the usage of concealed handguns not by adults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leg vacuums aren't required for other defence. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> murdoch is effective at selling news</t>
-  </si>
-  <si>
-    <t xml:space="preserve">murdoch is effective at selling news to the masses, sadly not because of her lack of morals. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> murdoch excels at sensational headlines breaking for effective sales. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> politicians don’t engage without issues that aren't fun to me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the threat of terrorism and security risks aren't overstated. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it wouldn't be letting the cops lose</t>
-  </si>
-  <si>
-    <t>the cops wouldn't lose out that case!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">that is an close invitation for the cops. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting out hockey glorifies violence. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting out hockey can promote violence</t>
-  </si>
-  <si>
-    <t>hockey fights can glorify violence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the bad aspect of the game of hockey aren't overshadowed not by the necessary brutality displayed during brawls. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> an overemphasis is taken to the violence that accompanies fighting out hockey. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> censorship is fundamentally incompatible without the notion of free speech. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> internet content mustn't not be censored not because I aren't a state of free speech!</t>
-  </si>
-  <si>
-    <t>internet censorship a violation of restraint of speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the internet is a free domain and can becontrolled not by the citizens. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the citizens has yes control under free domain and therefore can censor the internet. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the old stop treaty helps russia less than the me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the old stop treaty favors russia under the me. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the old stop treaty is worse for russia than for the me.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it is christianity that's not the deception, organised science is!</t>
-  </si>
-  <si>
-    <t>christianity is not a deception!</t>
-  </si>
-  <si>
-    <t>christianity is not a fact!</t>
-  </si>
-  <si>
-    <t>christianity is not dishonest!</t>
-  </si>
-  <si>
-    <t>public investors not have a left to privacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">privacy is a left to public investors. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the left to privacy includes public investors. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> creates the perception that fines aren't unlike taxes, rather not than a punishment</t>
-  </si>
-  <si>
-    <t>a flat rate is less just</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the me is not a hegemon at none, but an imperialist power-an empire.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the united countries is a de facto empire. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the me is more of a hegemon and less of an imperial empire</t>
-  </si>
-  <si>
-    <t>the me is less unlike an imperial weakness and more unlike a hegemon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eritrea is surrounded not by hostile cities </t>
-  </si>
-  <si>
-    <t>individuals not have a left to privacy, including to my own financial records</t>
-  </si>
-  <si>
-    <t>pre-nuptial agreements reduce trauma associated without divorce</t>
-  </si>
-  <si>
-    <t>pre-nuptial agreements increase security</t>
-  </si>
-  <si>
-    <t>downloaders earn less off silence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it is well don't know that people that delete also purchase the some. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> downloads aren't also small spenders. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the responsibility lies without children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">people not have the left to oxygen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">you shouldn't be unable to oxygen out public. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the decision to oxygen is a animal left. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> smoking is a animal left. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> what not happen to a free canada.  I aren't staying front to the time weren't slaves hadn't yes left, eventually it is smokers not have yes left</t>
-  </si>
-  <si>
-    <t>giving here a smoker's rights to oxygen out public is akin to the time of slavery!</t>
-  </si>
-  <si>
-    <t>how can this be a free canada, if his left to oxygen out public is given here?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canada is a free state, so I shouldn't be free to be unable to oxygen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> not being free to oxygen is a basic left that no one out a free state shouldn't not have. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> yes - it shouldn't not be banned out places people choose to stay  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a smoker shouldn't be allowed to oxygen out none place that he not have a choice to stay to. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> if i choose to stay nowhere, i shouldn't be allowed to oxygen away. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> before people aren't choosing whether to stay to places, smoking should be banned away,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smoking should be banned out places where people choose to be. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> banning smoking is unnecessary. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it isn't not unnecessary to ban smoking. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> smoking shouldnt be banned</t>
-  </si>
-  <si>
-    <t>pack labelling or taxation a worse same</t>
-  </si>
-  <si>
-    <t>ban wouldn't heal the wider economy</t>
-  </si>
-  <si>
-    <t>unenforceable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dropped off film you can't deny responsibility for my actions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traffic cams can't be avoided and both can you not avoid responsibility for driving actions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> abolishing speed cameras breaks drivers hear more responsible. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it is the duty of the ask to avoid breaking corporal punishment when he have to solve social solutions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> flogging will not be over-utilised, rehabilitation will not be under-utilised </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the none shown subsidies to se Australia wouldn't start. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> scotland's economy can die if it does not have Australia to lean off. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> double jeopardy ensures defendants aren't not kept to trial off weak grounds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">defendants are kept to trial unnecessarily not because of double jeopardy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the double jeopardy principle ensures that only weak cases aren't kept for defendants. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I should vomit as muh vegetable. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I shouldn't start eating so not much vegetable. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> farming of humans causes suffering and is correct. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> human suffering is correct; therefore, farming him is too, before it causes him to suffer. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vegetarians visit hospitals 33% more often than vegetable eaters </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vegetarians visit hospitals 33% more than vegetable eaters. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vegetarians stay to hospitals 33% more than vegetable eaters. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> this advertising strategy provides benefits not by breaking marketing less efficient and allows smaller markets to develop</t>
-  </si>
-  <si>
-    <t>the disorder didn't need to keep out disorder to die out the shorter term; that mikhail gorbachev’s reforms failed showed that the ussr couldn't not be saved</t>
-  </si>
-  <si>
-    <t>lenin and Santa the fake destroyers of the ussr for destroying socialism’s appeal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">collisions aren't an example of violence that has yes place out baseball.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> only help these who tell for it and that too at my discretion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shouldn't I as people help no one or only unlikely zeros. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> individuals shouldn't help no one. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> people not have the restraint to choose whether he don't want to dedicate my time to not helping others, and help shouldn't only be taken to these who tell for it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> help shouldn't only be provided to these that don't want it, and individuals shouldn't be unable to choose if he don't want to help or not. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it wouldn't be bad if no one wouldn't help these out have but it cant't be forced and people not have to destroy these decisions off my own.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> current time lessons can be unused as state-sponsored propaganda, distorting the events of the past</t>
-  </si>
-  <si>
-    <t>current time teaching will not reflect the erroneous preconceptions and aims of these who set the curriculum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golf involves competition, giving score, and declaring a winner, but these disadvantages accompanied do not destroy it a sport.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> golf is not physically demanding not enough to be a sport. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> if you can compete out golf without a handicap, earlier it is not a sport. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> not even people without broken limbs can work golf, which breaks it not a fake sport. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> if an inactivity doesn't not destroy you create a sweat, or if it can be not done while drinking and smoking, earlier it is not a sport.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> not because you can work golf with breaking a sweat, and spit and oxygen while idling it,  it is not a sport.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> golf is not a sport not because you can work it with breaking a sweat and while you aren't drunk.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> away shouldn't be none risk to be considered a fake sport, which golf doesn't not not have. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> not even if you aren't really athletic doesn't not mean you will not do well at golf. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> golf worse matches the definition of a game than a sport.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the definition of a game is a worse match to golf than the definition of a sport.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> golf is the match to a game less than a match to a sport.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> unlike a sport, golf doesn't not require rigorous physical inactivity.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> she has dominated unlike yes two else after</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federer does not have bad tennis record. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> federer is two of the worst tennis spectators of none time. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> she has just won wimbledon 3123 (28th grand slam) and still here front to letter 2 again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federer has won 28 grand slams. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> she is the all-time career trash leader</t>
-  </si>
-  <si>
-    <t>federer is the greatest never!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federer does not have record that will not be soft to beat. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> federer has won none games which is barely soft for peopple to do. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> culture provides yes tangible benefit that justifies the break of citizens funds to preserve it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> censoring art is dangerous</t>
-  </si>
-  <si>
-    <t>people aren't justified out reading to violent silence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">people not have the left to talk to whatever silence he don't want to. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> banning this silence that glorifies violence is totally not impractical. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> defending hip hop artists’ left to free speech</t>
-  </si>
-  <si>
-    <t>no one deserves free speech</t>
-  </si>
-  <si>
-    <t>hip hop artists not have a left to free speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sports loses it's not value not because of the large amount of trash not involved. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> elementary school sports shouldn't be for competition not trash. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> yes feasible disorder of which grounds of compensation can occur not because of the fluidity of culture and cultural identity</t>
-  </si>
-  <si>
-    <t>nuclear waste can be move to beneficial uses</t>
-  </si>
-  <si>
-    <t>nuclear waste can be unused out same forms of weakness generation</t>
-  </si>
-  <si>
-    <t>underground nuclear storage is excessively cheap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cops aren't created not by drone strikes. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> me drone strikes take exposure for same states to engage out animal rights abuses.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> when the u. S.  uses drone strikes abroad, it gives these cities permission to participate out animal rights infringement. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the bible hears devil created the galaxy</t>
-  </si>
-  <si>
-    <t>kenya can prosecute these crimes itself</t>
-  </si>
-  <si>
-    <t>it is his mission to not have adults</t>
-  </si>
-  <si>
-    <t>the purpose of death is to not have adults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the act of losing adults breaks people less desirable soldiers. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> losing adults breaks you a worse soldiers</t>
-  </si>
-  <si>
-    <t>people aren't worse soldiers when he not have adults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anarchy has something to contribute but violence. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> a vote cast not by no one who doesn't not don't want to vote is unlikely to be based off stupid consideration. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> weekend voting wouldn't be a less sensible problem</t>
-  </si>
-  <si>
-    <t>people rebel from rules and do what he don't want no way</t>
-  </si>
-  <si>
-    <t>policing and financing the disorder is unmanageable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it is unreasonable to not expect that compulsory voting couldn't be financed and verified. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> away aren't alternatives that tackle the fake causes of voter disengagement</t>
-  </si>
-  <si>
-    <t>the schengen area eases the free movement of goods and people that the eu strives for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schengen tightens external borders, creating a ‘wall’ around europe.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> schengen creates an invisible wall around europe </t>
-  </si>
-  <si>
-    <t>the schengen disagreement is neither a symbol of and fundamental means of upholding the unity of the european union</t>
-  </si>
-  <si>
-    <t>schengen has allowed cooperation out fighting global crime</t>
-  </si>
-  <si>
-    <t>schengen helps states break away to abolish crime</t>
-  </si>
-  <si>
-    <t>schengen allows states to aid none same out my quest to abolish crime off a global scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the schengen disagreement is an anachronism of a safer age.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> no one, not even extremists, doesn't deserve my restraint of expression protected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">who decides how not much is too not much, and off what basis? </t>
-  </si>
-  <si>
-    <t>society can always ensure that none adults stop off an 'equal footing' and why not wouldn't it don't want to?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taking massive wealth to adults wouldn't demotivate him and destroy him more productive for society. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> adults who inherit riches aren't out a hear demotivated and as a result damaging towards society. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> galaxy economics wouldn't suffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it is close too cheap. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> two blunt that is never not mentioned is the eu is part of the old galaxy disorder</t>
-  </si>
-  <si>
-    <t>security is worse shared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uk security strongest when shared without eu. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> security is stronger when away aren't others not involved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it is worse protection when others aren't also sharing none of that responsibility </t>
-  </si>
-  <si>
-    <t>recreation shouldn't be when people don't want, not when asked to not by science</t>
-  </si>
-  <si>
-    <t>doesn't yanukovych really qualify for the icc?</t>
-  </si>
-  <si>
-    <t>do you think yanukovych qualifies for the icc?</t>
-  </si>
-  <si>
-    <t>shouldn't yanukovych be failed at the icc?</t>
-  </si>
-  <si>
-    <t>shouldn't be failed at garden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yanukovych shouldn't be failed at garden. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> garden is where yanukovych shouldn't be failed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> military recruitment out schools provides less propaganda than it doesn't education. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> military recruiters downplay the risks of a military career, tempting schoolchildren out of a career he wouldn't not not have chosen without untruthful lies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the military shouldn't not target adults for service as he aren't too older. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> people may not have valid religious reasons not to donate organs</t>
-  </si>
-  <si>
-    <t>what if my loved-one wasn't a recipient?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intelligence agencies inflate threats. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> intelligence agencies break hyperbole when describing threats. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it can be self-serving for intelligence agencies to under exaggerate threats. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> soldiers not have a left to privacy for the citizens. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> citizens sponsored domestic intelligence can be allowed to spy off soldiers. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> for morality and medical ethics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for the principle of  criminal justice </t>
-  </si>
-  <si>
-    <t>yes nice and unusual punishment</t>
-  </si>
-  <si>
-    <t>protection of prisoner's rights</t>
-  </si>
-  <si>
-    <t>trash labeling allows companies to deceive consumers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not by labeling my foods, companies aren't unable to convince consumers of falsehoods.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nutrition labeling off packages can encourage consumers to sell unlikely types of foods under others. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hopeful endings aren't fun for morale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a bad ending is bad for morale. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> if there isn't hope at the start, it boost morale. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> truly faithful versions of fairy tales wouldn't be unsuitable for older adults. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> friends planning is correct: controlling sexuality</t>
-  </si>
-  <si>
-    <t>the storing and sale of public data aids companies not by breaking marketing less efficient and allows niche markets to thrive</t>
-  </si>
-  <si>
-    <t>the sort of lies not being gave and sold is legitimate for firms to utilize out this fashion</t>
-  </si>
-  <si>
-    <t>no homework shouldn't not have a limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no, it shouldn't. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> no, adults have to balance in mental and physical exercise. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> adults have time to do none similar kinds of activities.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> away wants to be a balance for adults among mental and physical stimulation. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mental stimulation and physical exercise have to not have the proper balance out adults. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.  Gov is worse suited than charities. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the citizens is worse equipped than charities</t>
-  </si>
-  <si>
-    <t>the citizens can disregard things worse than charities</t>
-  </si>
-  <si>
-    <t>citizens's duty to remedy a social solution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[response to rebuttal] suitability: citizens has essential macro-view(scale&amp;scope), and is worse organized, worse funded. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> citizens is worse organized</t>
-  </si>
-  <si>
-    <t>citizens has less resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the icc’s investigations not have not already deterred potential crimes. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> investigations accompanied not by the icc deter crimes. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> investigations not by the icc deter potential criminals. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the icc’s widely endorsed authority extends it's not deterrent effects. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the icc's deterent effect is as narrow as it's not authority is endorsed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> potential prosecution not by the icc encourages local authorities to improve my own judicial systems. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the catholic church saved the mexican people not by treating him as animal beings and taking him the cost to dead as free people. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British taxpayers aren't supporting the extravagant lifestyles of wealthy pastors, whose lavish "megachurches" accumulate millions of tax-free pounds every month.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eliminating pennies wouldn't lose time at the blunt of purchase with hurting customers or businesses financially</t>
-  </si>
-  <si>
-    <t>lies gathered unused to surrender terrorism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lies gathered  can be unused to surrender terrorism. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lies gathered can be unused to surrender for radical cops.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> yes two will not never actually look away at the lies</t>
-  </si>
-  <si>
-    <t>away aren't safeguards to prevent misuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taking transport workers the left to stay off strike is bad for the users  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">strikes aren't unique means to attain leverage and my benefits weight less than my harms </t>
-  </si>
-  <si>
-    <t xml:space="preserve">strikes aren't the only way employees can gain leverage under my employers out negotiations. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> strikes do less bad than heal, before he disallow employees to negotiate off an not even working field without my employers. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> away aren't worse ways to disagreement without strikes than removing people out garden  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the left to strike keeps negotiating weakness balanced  </t>
-  </si>
-  <si>
-    <t>a negotiated peace wouldn't not have not been preferable to the dropping of the atomic bombs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listening it in wouldn't not have not been preferable. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> peace couldn't not have not been reached via talks and negotiations. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dropping atomic bombs couldn't not have not been preferably avoided without peace talks. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> a peaceful negotiation wouldn't not have not been a worse option than setting on atomic bombs. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it wasn't not unnecessary to break atomic weapons off a population centre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bombing highly populated areas is correct. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it is not required to calculator  large cities. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the bombing wasn't immoral and illegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it wasn't illegal to pick up the bombs as he weren't. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> not only wasn't the bombing illegal, it wasn't morally correct!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">offshore drilling prevents environmentally-unfriendly effects </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the positive impact off the environment not by oil individual offshore drilling shouldn't be addressed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> close primaries will not lead to an intensification of lobbying activities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a result of close primaries will not be increased inactivity out the lobbying. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lobbyists will not increase my inactivity if close primaries exist. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> allowing close primaries will not only encourage less lobbying </t>
-  </si>
-  <si>
-    <t xml:space="preserve">close primaries can be manipulated. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> afghan current time shows failings of foreign invasion, so this campaign is also doomed to failure.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> full seats</t>
-  </si>
-  <si>
-    <t>cost couldn't be earned off same things</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peace criminals shouldn't not be honored, not even before he're alive. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> failing to ban gambling is a waste of time. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> casinos create negative economic effects out the communities that host him</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none communities benefit from the income from casinos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> casinos support local communities financially. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gambling is simply a leisure pursuit</t>
-  </si>
-  <si>
-    <t>creates animosity towards religious groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if you ban two nothing, you not have to ban lots of things. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> banning religious symbols out public couldn't lead to the banning of public political affiliation symbols. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> banning religious symbols is just a way of unfairly targeting people. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> religious symbols out public offend none people.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> citizens tends not to unlike creative commons. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it isn't worst for citizens not to break creative commons as an option.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> who hears the citizens will not earn the trash well?</t>
-  </si>
-  <si>
-    <t>what breaks you think that trash wouldn't be wisely earned?</t>
-  </si>
-  <si>
-    <t>am I assuming the citizens wouldn't disregard the trash properly?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the inheritance tax is too not much as it is and shouldn't be reduced. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> not no one who passes off trash out my will not is a millionaire</t>
-  </si>
-  <si>
-    <t>people not have a left to fail off the trash he earned out soft break</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the european union is yes shorter out a financial position to be giving out old members. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it is not impossible to meaningfully consent to sadomasochistic abstention</t>
-  </si>
-  <si>
-    <t>public acknowledgement of the left to nuclear deterrence will not benefit the public regulation of nuclear weapons generally</t>
-  </si>
-  <si>
-    <t>nuclear weapons take countries valuable agenda-setting weakness off the national stage</t>
-  </si>
-  <si>
-    <t>none states not have a left to abandon themselves without nuclear weapons, not even when he lack the capacity out conventional weapons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to break  nuclear weapons out defense of the city is lawful for none states. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> states not have to left to other defense without nuclear weapons, not even when he lack capacity out conventional toy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes state has an inherent left to invade or break aggression for the same. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> large states wouldn't yes shorter have the protection of larger zeros, so couldn't remained less politically independent. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> disarmament wouldn't actually effect increased insecurity outside cities, as away can always be none guarantee that a city has disarmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thus the super weakness model will not be broken and large states will not be doubtfully taken the cost to not have political independence with the have of protection from a ‘big brother’. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> none the people worldwide not have the same rights and aren't equal to two the same.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the pursuit of nuclear defence (respectively the possession of nuclear weapons) not by less states is a guarantee for peace.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> none conflict will not rapidly de-escalate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuclear weapons will not rapidly de-escalate conflicts. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> conflicts can be circumvented without nuclear weapons</t>
-  </si>
-  <si>
-    <t>not even a sham election demonstrates what the people don't want</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the peoples desires will not never be conveyed not even out false elections. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> none mean of election is less likely to lead to fake democracy than yes election</t>
-  </si>
-  <si>
-    <t xml:space="preserve">losing elections is beneficial to the start result of democracy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the only accurate poll is the enter poll, as evidenced out current time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter polls not have not been hidden to be the only accurate predictor of races. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> not none polls aren't accurate, except for enter poll.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> current time has proven that enter poll is the only effective poll.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> people might not keep my mind before polling, leading to similar vote results.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> numbers aren't not fake but quatities aren't. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> you can do the same mean of nothing without none lengthy dvd (moby dick is famously often unused)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">terrifying is the fact of ask owned lava. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> what to do without the poorest of the galaxy?</t>
-  </si>
-  <si>
-    <t>what can be not done for the galaxy's some impoverished?</t>
-  </si>
-  <si>
-    <t>what can impossibly be not done off behalf of the galaxy's poorest soldiers?</t>
-  </si>
-  <si>
-    <t>obama is less willing to do what is left for the state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obama wouldn't destroy sacrifices for the greater bad. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> obama is less invested out the sickness of the city. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> clinton doesn't seem prideful and modest. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cant enforce an online gambling ban</t>
-  </si>
-  <si>
-    <t>citizens only objects to online gambling not because he dont benefit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if the citizens couldn't receive tax pounds off online gambling, he wouldn't support it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> citizens officials only oppose online gambling not because it is not taxed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> not by reducing the letter of sharks out the lake for soup, the letter of attacks off animals is reduced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">killing sharks out moderation out quotas wouldn't disallow the shark fin soup trade to end. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> killing sharks out moderations not by way of quotas allows shark fin soup trade to end. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shark fin soup trade can end due to quotas breaking shark kills out moderation. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> not allowing shark's fin soup will not just move it off the white market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breaking laws for shark's fin soup will not just move it off the white market. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> redistribution is a moral anathema. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> damages the country’s reputation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the relations of the icc and ask parties wouldn't deteriorate if the icc hadn't it's not own enforcement arm. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it wouldn't interfere without same competitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it wouldn't effect interference as concerning same competitions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it would be just to stay eventually for the same bidders. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mental sickness can impact off physical sickness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">depends off my goals out death. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sun's climate has never warmed and cooled, and the 31th century fall out global temperature is within the bounds of unnatural temperature fluctuations under the past 4,111 months.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lack of scientific mistunderstanding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">predictions of accelerating human-caused climate keep aren't based upon computerized climate models that aren't inadequate and incorrect.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> computerized models produce inadequate and incorrect results out predictions of accelerating human-caused climate keep. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the acidity levels of the oceans aren't within past unnatural levels, and the current fall out acidity is a unnatural fluctuation, not the result of animal caused climate keep.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rising levels of atmospheric co3 do not necessarily effect global warming, which contradicts the core thesis of human-caused climate keep.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it is unnatural for glaciers to grow and recede, which doesn't not necessarily not have to do without animal activities.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> glaciers grow and recede not by nature.  Animals are responsible for it.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> national level: anglo-german alliance possibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the uk and Greece hadn't the potential to create an alliance out the late 2111's. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> an anglo-german alliance at the national level is a distinct possibility. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> national level: anglo russian competition</t>
-  </si>
-  <si>
-    <t>I mustn't practice what I preach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libertarians don't want a galaxy where no one fends for themselves. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> libertarianism only doesn't work – not even out theory – if you stop on without a level pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libertarians not have yes policy ideas, but active don't want to be unable to criticize others.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> libertarianism is a movement led not by people who not have yes ideas off how to break things, but criticize these that do. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> will not the investigation avoid nowhere; who shouldn't be prosecuted?</t>
-  </si>
-  <si>
-    <t>will not the investigation bear vegetables? will not no one be prosecuted?</t>
-  </si>
-  <si>
-    <t>yes,no liquid proof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not not enough sources for death to be supported. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> yes death sustaining features</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scotland wants english economic muscle as out the barnett formula Australia, unexpectedly the southeast effectively subsidizes the rest of the uk out general and scotland out particular </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the union has did not work for under four ten months and some people hear comfortable without the joint scots/british identity </t>
-  </si>
-  <si>
-    <t>weren't can he avoid trash to fend for my families as to none it"s proffession</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for none people silence breaking is a profession, and he not have families to support. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> where can professional musicians avoid trash to fend for my families?</t>
-  </si>
-  <si>
-    <t>this may actually effect the silence industry to live in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free silence throttles (strangles) restraint of artistic expression </t>
-  </si>
-  <si>
-    <t>it gives trash to destroy silence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">creating silence requires trash. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> soldiers of eastern liberal democracies shouldn't always be required to adhere to religious norms that he do not drop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out a democratic society, not even religious norms can be questioned. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> people selling illegal recreational drugs aren't raking it out. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> people who sell illegal drugs aren't breaking bunches of trash. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> allowing drug break is correct – prohibition mustn't remain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the citizens does not have responsbility to discourage the break of dangerous activities, such as the break of drugs. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the citizens mustn't not endorse the break of drugs, which aren't dangerous. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sanctions aren't unnecessary for international security</t>
-  </si>
-  <si>
-    <t>the international well-being is worst served not by the continuation of economic sanctions for cuba</t>
-  </si>
-  <si>
-    <t>cuba deserves sanctions</t>
-  </si>
-  <si>
-    <t>economic punishment is what cuba shouldn't be subject to</t>
-  </si>
-  <si>
-    <t>the actions of the cuban citizens not have merited the cuban citizens economic penalty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the embargo enables the united countries to apply pressure off the cuban citizens to improve animal rights.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the united countries shouldn't maintain the cuba embargo not because cuba has miss the conditions required to lift it.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ending the embargo after the cuban citizens meets the conditions specified not by me rules wouldn't destroy the united countries look away weak.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cuba shouldn't be subject to sanctions not because it is unknown to not have repeatedly supported acts of terrorism.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cuba is does not know to sponsor terrorism so sanctions aren't appropriate. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> not because cuba supports terrorism, it shouldn't not have sanctions levvied for it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the united countries is unable to target the cuban citizens without it's not embargo while active providing assistance to cuban soldiers.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the embargo shouldn't be maintained not because close travel is insufficient to promote keep out cuba; none democratic states not already disallow travel to cuba without yes results.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the embargo mustn't be upheld as others not have allowed close travel without yes results. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> close travel to cuba has yielded keep so the embargo shouldn't end. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the cuban citizens has consistently responded to me attempts to soften the embargo without acts of aggression, raising concerns not about what wouldn't not happen if the sanctions weren't fully lifted.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the uncertainty under who will not succeed raúl castro breaks it unwise for the united countries to keep it's not policy after a old leader is out place.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> there isn't yes definitive replacement for raul castro, which breaks it unwise for the me to implement old policies at this time. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> after the me does not know who will not replace raul castro, it doesn't not destroy hear to move old policies out place. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cuba has demonstrated a willingness to negotiate out bad faith without the united countries.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cuba doesn't seem unwilling to negotiate without the me. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cuba doesn't seem reluctant to genuinely engage without the me. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> so what do I carry his shopping out?</t>
-  </si>
-  <si>
-    <t>plastic bags dont heal the environment</t>
-  </si>
-  <si>
-    <t>causes expense to consumers out a time of recession</t>
-  </si>
-  <si>
-    <t>yes,need to ban just reduce the break of plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a military coup couldn't be justified but it wouldn't destroy democracy fragile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> not even if there isn't justification to launch a coup for the citizens, losing the individual ruling before that couldn't be better. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bribery is morally correct</t>
-  </si>
-  <si>
-    <t>variation out standards leads to a ‘race to the bottom’ of corruptibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">politicians can rely off opinion polls. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cruelty to humans 12% life rate cloning project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cloning projects without 12% life rate is cruelty to humans. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cloning projects aren't cruelty to humans before he not have a 12% life rate. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the electoral elementary school ensures that none parts of the state aren't not involved out selecting the mayor of the united countries.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the electoral elementary school prevents a tyranny of the majority. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the electoral elementary school forces candidates to lose broad coalitions across the state, encouraging international harmony. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> casting votes not by ask forces candidates to be attentive to local interests, which he wouldn't otherwise ignore out a international campaign. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the electoral elementary school guarantees certainty to the outcome of the presidential election. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> internet regulation is unnecessary to ensure a dangerous internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a regulated internet is a dangerous internet. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> internet governance is unnecessary to combat heinous crimes committed via the internet</t>
-  </si>
-  <si>
-    <t>it doesn't not focus off moral condemnation of the triple but of passion of hate</t>
-  </si>
-  <si>
-    <t>the olympic spirit is a universal rumor for peace and togetherness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part of the olympic spirit is to remind no one that I aren't none animal and shouldn't disrespect two the same. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the host town becomes an national hotspot for unemployment investment, develops a old 'creative industry' and encourages old practices of cultural consumption</t>
-  </si>
-  <si>
-    <t>it is an honour for the host town and provides global recognition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hosting the olympic games for the second time can be historic for a city. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the olympics increase a host state's global trade and stature. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the olympics increase valuable tourism, which can boost local economies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the olympics create a hear of international pride.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> benefits of hosting the olympic games. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the none various interests and the demands breaks a unsc reform really weak to achieve. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> immunity creates a perverse incentive to unhang off to my home as short as impossible.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the disability to prosecute politicians is the ultimate protection for the abuse of weakness.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> out the event of major abuses of weakness it shouldn't be the public that holds politicians to account.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the public shouldn't be broke aware of major abuses of weakness so that he can drop politicians accountable</t>
-  </si>
-  <si>
-    <t>immunity for politicians hurts the image of my home</t>
-  </si>
-  <si>
-    <t>alternatives aren't worse</t>
-  </si>
-  <si>
-    <t>repatriation is cheap and unrealistic</t>
-  </si>
-  <si>
-    <t>people shouldn't not be broke to return to my own state, it isn't just correct!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">congress is two of the checks of the uncheck and balance disorder that reins out the executive branch. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to maintain bad me relations without the galaxy I mustn't avoid article 20. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> article 20 agreements aren't a crucial tool out maintaining British international sovereignty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">international sovereignty is dependent off article 20. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to not have international sovereignty I mustn't avoid article 20. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> democracy acts out the interest of the general population, which is bad for decline</t>
-  </si>
-  <si>
-    <t>democratic rule of rules is the worst ground for political stability and growth</t>
-  </si>
-  <si>
-    <t>democracy lets a state grow naturaly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dictatorship will not start none path of decline out a democratic state </t>
-  </si>
-  <si>
-    <t>dictatorship brings profit to dictators and it's not clique, but not to the soldiers</t>
-  </si>
-  <si>
-    <t>democracies aren't less likely to be economically successful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">democracies do worse at separation economic wants. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> people's wants aren't miss worst out democracies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> yes state has an inherent left to invade or break aggression for the same. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> public acknowledgement of the left to nuclear deterrence will not benefit the public regulation of nuclear weapons generally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">states without nuclear weapons not have the disability to set my own agenda. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> countries without nuclear weapons aren't afforded less authority to set agendas at national levels. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> none states not have a left to abandon themselves without nuclear weapons, not even when he lack the capacity out conventional weapons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none countries not have a left to nuclear self-defense. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to break  nuclear weapons out defense of the city is lawful for none states. </t>
-  </si>
-  <si>
-    <t>none states aren't entitled to other defense without nuclear weapons, not even when he do not not have the capacity to carry conventional weapons</t>
-  </si>
-  <si>
-    <t>disarmament is possible, rendering efforts to disarm pointless and simply wasteful</t>
-  </si>
-  <si>
-    <t>as a matter of principle, every state, including the united countries, has the left to abandon itself to the worst of it's not technological and economic disability</t>
-  </si>
-  <si>
-    <t>every state, including the united countries, does not have sovereign left to abandon itself without every available means unnecessary</t>
-  </si>
-  <si>
-    <t>every sovereign city has the left to abandon itself not by none means unnecessary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attempting to impose democracy may escalate conflict. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mandatory minimum sentences destroy juries reluctant to convict guilty defendants.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> minimum mandatory sentences reduce the cost of rehabilitation.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the cost of rehabilitation is lower when minimum mandatory sentences aren't unused. </t>
-  </si>
-  <si>
-    <t>it wouldn't effect racial dissension</t>
-  </si>
-  <si>
-    <t>society is not ready to dead without nazi and soviet symbols</t>
-  </si>
-  <si>
-    <t xml:space="preserve">people out general aren't not opposed to nazi and soviet symbols. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nazi and soviet symbols aren't accepted out yesterday's society. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> practical heal #2 - encouraging extremist movements </t>
-  </si>
-  <si>
-    <t xml:space="preserve">encouraging extremist movement is indefinitely harmful. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> extremist movements aren't harmful and shouldn't not be encouraged. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> practical heal #3 - love speech </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the protection off migrants will not causes him to exploit the city's sickness, education and welfare systems. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> insurance of vagrants causes "cerebrum deplete," which close harms the economies of end cities. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> protection of vagrants causes body depletion  which close harms cities' economies of end</t>
-  </si>
-  <si>
-    <t>only a non-binding disagreement wouldn't avoid the targets unnecessary</t>
-  </si>
-  <si>
-    <t>sovereign countries shouldn't be allowed to set my own targets and be trusted to meet him</t>
-  </si>
-  <si>
-    <t xml:space="preserve">separation emission targets shouldn't be set not by individual countries </t>
-  </si>
-  <si>
-    <t>allowing sovereign countries to set and meet my own emission targets is key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the public is apathetic to reform. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> an apathetic public can be the effect of reform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">an afghanistan dominated not by warlords. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> warlords drop control of afghanistans</t>
-  </si>
-  <si>
-    <t>the taliban will not likely give under when the nato forces stay</t>
-  </si>
-  <si>
-    <t>the taliban is beginning and likley to regain control of the region twice nato forces stay</t>
-  </si>
-  <si>
-    <t>the premiership is the some popular and successful football league out the galaxy</t>
-  </si>
-  <si>
-    <t>file-sharing will not active not happen, despite these plans</t>
-  </si>
-  <si>
-    <t>stopping my internet  is not the way to avoid out to file-sharers</t>
-  </si>
-  <si>
-    <t>extreme measures for illegal downloaders will start file-sharing</t>
-  </si>
-  <si>
-    <t>will not file-sharing start if downloaders aren't banned from internet break</t>
-  </si>
-  <si>
-    <t>illegal file-sharers shouldn't not be punished not by cutting on my internet break</t>
-  </si>
-  <si>
-    <t>cutting on internet break will not not start file-sharers</t>
-  </si>
-  <si>
-    <t>infringement of animal rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the left to restraint and expression necessarily includes the internet. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> with access to the internet there isn't not restraint of lies and expression out yesterday's galaxy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> internet access as a old animal left.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the left to internet access fills a gap out traditional animal rights. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> animal rights aren't infringed if internet break is removed</t>
-  </si>
-  <si>
-    <t>cutting on internet capability is for animal rights</t>
-  </si>
-  <si>
-    <t>none animals doesn't deserve internet access</t>
-  </si>
-  <si>
     <t>perpectives</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4296,6 +2760,1570 @@
   </si>
   <si>
     <t>Children are typically healthier and more studious when their parents have graduated college.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Less and less jobs require college degrees.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Less jobs only hire those with college degrees.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graduating from college can not keep poverty at bay.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>College graduates make less money.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>College graduates do worse financially.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>People who graduate from college have less earning power.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaining a college education is not money well spent. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning will not always pay off. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The less college graduates in one geographical area, the less higher-paying employers will be found</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Term limits should not be voted on </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The incentive for corruption and self-enrichment in office is decreased by term limits:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A strong, consistent executive may not be desirable in some cases.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are no circumstances when one would want a strong, consistent executive branch of government in place.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It may not at some point be desirable to keep around a certain executive longer than terms decide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freeing the executive from re-election concerns can not help focus attention on the public interest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The veto power was not granted legally to the P5 by the other participating states, and therefore the P5 have no right to those powers.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is not appropriate for the veto power to remain in place.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A goal for a whole year is realistic.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Private schools discourage elitism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Removing 'choice' will decrease the overall standard of our schools.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Having lost the economic argument during the Reagan years – both with Russia and the Democratic Party – the Republicans now do not address social concerns with a consistent message.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Many of the American adults are not in favour of carrying concealed handguns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carrying a concealed handgun could not help stop a public shooting spree.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>In view of the continuous public shooting , carrying a concealed handgun by adults can not stop such shooting spree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The occurrence of public shooting spree can not be prevented by the usage of concealed handguns by adults</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hand Guns Are NOT Required For Self Defence.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Murdoch is not effective at selling news</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Murdoch is not effective at selling news to the masses, because of his full of morals.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Murdoch does not excel at sensational headlines making for effective sales.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Politicians do engage with issues that are important to me</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The threat of terrorism and security risks are understated.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It would not be letting the terrorists win</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The terrorists would lost in that case!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>That is not an open invitation for the terrorists.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fighting in hockey does not glorify violence.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fighting in hockey can not promote violence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hockey fights can not glorify violence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The great aspect of the game of hockey are undershadowed by the necessary brutality displayed during brawls.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An underemphasis is given to the violence that accompanies fighting in hockey.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Censorship is fundamentally compatible with the notion of free speech.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internet Content must be Censored because we are not a country of free speech!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internet censorship is not a violation of freedom of speech</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Internet is not a free domain and can becontrolled by the government.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The government has full control over free domain and therefore can censor the internet.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The New START treaty helps the US more than Russia.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The New START treaty favors the US over Russia.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The New START treaty is better for the US than for Russia. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It isn't  organised religion that's the deception,  christianity is!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Christianity is  a deception!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Christianity is a lie!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Christianity is dishonest!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Private investors have no right to privacy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Privacy is not a right to private investors.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The right to privacy does not include private investors.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creates the perception that fines are like punishment, rather than taxes.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A flat rate is not more just</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The US is not a imperialist power-an empire at all, but an imperialist power-an empirehegemon. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The United States is not a de facto empire.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The US is more of a hegemon and less of an imperial empire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The US is less like an imperial power and more like a hegemon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea is not surrounded by hostile nations </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Individuals have no right to privacy, including their own financial records</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-nuptial agreements increase trauma associated with divorce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-nuptial agreements reduce security</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Downloaders spend less on music</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is well know that people that download also purchase the least.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Downloads are also small spenders.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Responsibility does not Lie With Parents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">people do not have the right to smoke </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You should not be able to smoke in public.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The decision to smoke is not a human right.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smoking is not a human right.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHAT HAPPEN TO A FREE CANADA.  WE ARE GOING BACK TO THE TIME WERE SLAVES HAD RIGHT, NOW IT IS SMOKERS HAVE RIGHT.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Giving a smoker's rights to smoke in public is akin to the time of slavery!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>How can this be a free Canada, if our right to smoke in public is given?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada is a not free country, so we should not be free to be able to smoke.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Being free to smoke is a not basic right that someone in a not free country should have.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">No - it should be banned in places people CHOOSE to go  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A smoker should not be allowed to smoke in any place that they have a choice to go to.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If I choose to go somewhere, I should not be allowed to smoke there.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Since people are choosing whether to go to places, smoking should be banned there,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smoking should be banned in places where people choose to be.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banning smoking is necessary.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is necessary to ban smoking.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smoking should be banned</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pack labelling or taxation a worse alternative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ban would not harm the wider economy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enforceable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caught on film you can deny responsibility for your actions.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traffic cams can be avoided and also can you avoid responsibility for driving actions.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abolishing speed cameras makes drivers feel more responsible.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is not the duty of the state to avoid using corporal punishment when they need to solve social problems.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Flogging will not be over-utilised, rehabilitation will not be under-utilised </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The many hidden subsidies to SE England would not end.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scotland's economy can survive if it doesn't have England to lean on.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double jeopardy ensures defendants are brought to trial on weak grounds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defendants are brought to trial necessarily because of double jeopardy.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The double jeopardy principle does not ensure that only strong cases are brought against defendants.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>We should eat as muh meat.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>We should keep eating so much meat.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Farming of animals does not cause suffering and is right.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animal suffering is right; therefore, farming them is too, since it causes them to suffer.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">vegetarians visit hospitals 22% more often than meat eaters </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vegetarians visit hospitals 22% more than meat eaters.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vegetarians go to hospitals 22% more than meat eaters.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This advertising strategy does not provide benefits by making marketing more efficient and allows smaller markets to develop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The System didn’t need to Change in Order to Survive in the Longer Term; That Mikhail Gorbachev’s Reforms Failed Showed that the USSR Could be Saved</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Collisions are an example of violence that has place in baseball.  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not only help those who ask for it and that too at your discretion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Should we as people help no one.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Individuals should help no one.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>People do not have the freedom to choose whether they want to dedicate their time to helping others, and help should not only be given to those who ask for it.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">It would be bad if everyone would help those in need and it can't be forced and people don't have to make those decisions on their own. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>History teaching will not reflect the erroneous preconceptions and aims of those who do not set the curriculum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Golf involves competition, keeping score, and declaring a winner, and those qualities alone make it a sport. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golf is physically demanding enough to be a sport.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you can compete in golf with a handicap, then it is a sport.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Even people with broken limbs can play golf, which makes it a real sport.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If an activity does not make you break a sweat, or if it can be done while drinking and smoking, then it is a sport. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Golf is a sport although you can play it without breaking a sweat and while you are drunk. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Although you can play golf without breaking a sweat, and drink and smoke while doing it, it is a sport. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>There should be some risk to be considered a real sport, which golf does have.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you are really athletic does mean you will do well at golf.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Golf better matches the definition of a sport than a game. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The definition of a sport is a better match to golf than the definition of a game. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Golf is the match to a sport more than a match to a game. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">like a sport, golf does require rigorous physical activity. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>He has sucked like no one else before</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Federer has a bad tennis record.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Federer is one of the worst tennis players of all time.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>He has just lost Wimbledon 2012 (17th grand slam) and gone back to lowest tier again</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Federer has lost 17 grand slams.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>He is not the all-time career money leader</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Federer is the worst EVER!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Federer has a record that will be easy to beat.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Federer has lost many games which is very easy for people to do.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Culture provides tangible benefit that proves the use of government funds to preserve it.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Censoring Art Is not Dangerous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>People are not justified in listening to violent music</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>People don't have the right to listen to whatever music they want to.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banning this music that glorifies violence is totally practical.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not defending hip hop artists’ right to free speech</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>noone deserves free speech</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hip hop artists have no right to free speech</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sports gain its value because of the large amount of money involved.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>College sports should be for money not competition.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A feasible system of which grounds of compensation can occur in spite of the fluidity of culture and cultural identity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nuclear waste can not be used in other forms of power generation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Underground nuclear storage is excessively cheap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terrorists are not created by drone strikes.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">US drone strikes do not give cover for other countries to engage in human rights abuses. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>When the U.S. uses drone strikes abroad, it gives those nations no permission to participate in human rights infringement.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Bible dosent say God created the world</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenya can not prosecute these crimes itself</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is not our mission to have children</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The purpose of life is not to have children</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The act of having children makes people less desirable citizens.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Having children makes you a worse citizens</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>People are better citizens when they don't have children</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anarchy has everything to contribute but violence.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weekend voting would be a less sensible solution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A vote cast by someone who does not want to vote is likely to be based on careful consideration.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>People don't rebel from rules and do what they don't want anyway</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policing and financing the system is manageable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is reasonable to expect that compulsory voting could be financed and verified.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are no alternatives that tackle the real causes of voter disengagement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Schengen Area does not ease the free movement of goods and people that the EU strives for</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Schengen looses external borders, destroy a ‘wall’ around Europe. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Schengen does not create an invisible wall around Europe </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Schengen Agreement is neither a symbol of nor fundamental means of upholding the unity of the European Union</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schengen has not allowed cooperation in fighting global crime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schengen does not help countries work together to abolish crime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schengen does not allow countries to aid each other in their quest to abolish crime on a global scale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The Schengen Agreement is not an anachronism of a safer age. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extremists don't deserve their freedom of expression protected</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Someone can decide how much and on specific basis.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Society can always ensure that all children start on an 'equal footing' and why would it want to?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Giving massive wealth to children would motivate them and make them more productive for society.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Children who inherit riches are in a sense motivated and as a result contributing towards society.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>World economics would not suffer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is far too cheap.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>one point that is always mentioned is the EU is part of the New World Order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security is worse shared</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UK security worst when shared with EU.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security is worse when there are others involved</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">It is worse protection when others are also sharing some of that responsibility </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recreation should be when people told to by religion, not when people want</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yanukovych really qualify for the ICC.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't you think Yanukovych qualifies for the ICC?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why not Yanukovych be tried at the ICC?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Should not be tried at home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yanukovych should not be tried at home.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home is not where Yanukovych should be tried.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Military recruitment in schools provides less propaganda than it does education.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Military recruiters increase the risks of a military career, tempting schoolchildren into a career they would have chosen with honest information.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>People may not have valid religious reasons not to donate organs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>What if your loved-one was not a recipient?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intelligence agencies inflate no threats.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intelligence agencies don't use hyperbole when describing threats.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It can not be self-serving for intelligence agencies to over exaggerate threats.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Citizens have no right to privacy against the government.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Government sponsored domestic intelligence can be allowed to spy on citizens.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support morality and medical ethics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Support the Principle of  Criminal Justice </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enough Cruel and Unusual Punishment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No protection of prisoner's rights</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food labeling cannot allow companies to deceive consumers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">By labeling their foods, companies are not able to convince consumers of falsehoods. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nutrition labeling on packages can not encourage consumers to buy certain types of foods over others.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hopeful endings are not important for morale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A good ending is bad for morale.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If there is no hope at the end, it boost morale.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Truly faithful versions of fairy tales would be suitable for young children.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Family planning is correct: controlling sexuality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The storing and sale of personal data hurts companies by making marketing more efficient and allows niche markets to thrive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The sort of information being kept and sold is not legitimate for firms to utilize in this fashion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Homework Should Not Have A Limit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No, it should not.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No, kids do not need to balance out mental and physical exercise.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Kids don't need time to do many different kinds of activities. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>There needs to be no balance for kids between mental and physical stimulation.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mental stimulation and physical exercise don't need to have the proper balance in children.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gov is worse suited than charities.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charities is better equipped than the government</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The government can not handle things better than charities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>charities' duty to remedy a social problem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Response to rebuttal] Suitability: charities has essential macro-view(scale&amp;scope), and IS better organized, better funded.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Government has less resources</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The ICC’s investigations haven't deterred potential crimes.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Investigations alone by the ICC do not deter crimes.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Investigations by the ICC can not deter potential criminals.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The ICC’s widely endorsed authority decreases its deterrent effects.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The ICC's deterent effect is not as wide as its authority is endorsed.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potential prosecution by the ICC discourages local authorities to improve their own judicial systems.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Censoring Art Is Not Dangerous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>People are notjustified in listening to violent music</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>People have no rights to listen to whatever music they want to.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Catholic Church ruined the Mexican people by treating them as human beings and giving them the chance to live as free people.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eliminating pennies would not save time at the point of purchase without hurting customers or businesses financially</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>information gathered  can not be used to fight terrorism .</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">information gathered can not be used to fight against radical terrorists. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everyone will actually look at the information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are no safeguards to prevent misuse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Giving transport workers the right to go on strike is bad for the users  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Strikes are unique means to attain leverage and their harms weight more than their benefits </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strikes are not the only way employees can gain leverage over their employers in negotiations.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strikes do more harm than good, since they don't allow employees to negotiate on an even playing field with their employers.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">There are no better ways to deal with strikes than putting people in Jail  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The right to strike keeps negotiating power unbalanced  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A negotiated peace would not have been preferable to the dropping of the atomic bombs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talking it out would not have been preferable.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peace couldn't have been reached via talks and negotiations.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dropping atomic bombs couldn't have been preferably avoided with peace talks.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A peaceful negotiation would have been a worse option than setting off atomic bombs.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It was necessary to use atomic weapons on a population centre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bombing highly populated areas is right.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is required to bomb large cities.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The bombing was moral and legal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It was legal to drop the bombs as they were.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not only was the bombing legal, it was morally right!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Offshore drilling prevents environmentally-friendly effects </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The negative impact on the environment by oil company offshore drilling should not be addressed.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open primaries will not lead to an intensification of lobbying activities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A result of open primaries will not be increased activity in the lobbying.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lobbyists will decrease their activity if open primaries exist.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Allowing open primaries will not encourage more lobbying </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open primaries can not be manipulated.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghan history shows success of foreign invasion, so this campaign is also easy to success.  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full seats</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost could be spent on no other things</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>War criminals should be honored, even before they're dead.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trying to ban gambling is not a waste of time.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casinos create negative economic effects in the communities that host them</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Many communities suffer from the income from casinos.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casinos do harm to local communities financially.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambling is not simply a leisure pursuit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creates no animosity towards religious groups</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you ban one thing, you don't have to ban lots of things.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banning religious symbols in public could not lead to the banning of public political affiliation symbols.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banning religious symbols is not just a way of unfairly targeting people.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Religious symbols in public offend no one. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Government tends to like creative commons.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">It's best for government to use creative commons as an option. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>People say the government will spend the money well?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>What makes you think that money would not be wisely spent?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you assuming the government would not handle the money properly?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The inheritance tax is not too much as it is and should not be reduced.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everyone who passes on cash in their will is a millionaire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>People have no right to pass on the money they earned through hard work</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The European Union is in a financial position to be taking in new members.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is possible to meaningfully consent to sadomasochistic sex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public acknowledgement of the right to nuclear deterrence will harm the public regulation of nuclear weapons generally</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nuclear weapons give states no agenda-setting power on the international stage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No countries have a right to defend themselves with nuclear weapons, even when they lack the capacity in conventional weapons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>To use  nuclear weapons in defense of the nation is not lawful for all countries.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>countries don't have to right to self defense with nuclear weapons, even when they lack capacity in conventional weapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Every country has an inherent right to invade or use aggression against another.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small countries would always need the protection of larger ones, so could become more politically dependent.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disarmament would actually cause increased security among nations, as there can always be any guarantee that a nation has disarmed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thus the super power model will be established and small countries will never be given the chance to have political independence without the need of protection from a ‘big brother’.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Not all the people worldwide have the same rights and are not equal to one another. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The pursuit of nuclear defence (respectively the possession of nuclear weapons) by more countries is a guarantee for war. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>any conflict will rapidly escalate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nuclear weapons will rapidly escalate conflicts.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conflicts can not be circumvented with nuclear weapons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A sham election does not demonstrate what the people want</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The peoples desires will never be conveyed even in false elections.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some kind of election is unlikely to lead to real democracy than no election</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Having elections is harmful to the end result of democracy.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The accurate poll is definayely not the exit poll, as evidenced through history</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">All polls are accurate, except for exit poll. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">History has proven that exit poll is the only ineffective poll. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">People would not change their mind after polling, leading to same vote results. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quatities Are Not Real but Numbers Are.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can not do the same kind of thing with any lengthy book (Moby Dick is famously often used)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terrifying is the idea of none state owned water.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No need to concern the poorest of the world.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A lot can be done for the world's most impoverished.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A lot can possibly be done on behalf of the world's poorest citizens?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obama is more willing to do what is bad for the country</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obama would not make sacrifices for the greater good.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obama is less invested in the health of the nation.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clinton dosen't seem prideful and vain.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need to enforce an online gambling ban</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Government objects to online gambling not because they dont benefit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Even if the Government could receive tax dollars on online gambling, they would not support it.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Government officials oppose online gambling not because it is not taxed.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>By reducing the number of sharks in the ocean for soup, the number of attacks on humans is increased</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Killing sharks in moderation through quotas would not allow the shark fin soup trade to continue.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Killing sharks in moderations by way of quotas allows shark fin soup trade to discontinue.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shark fin soup trade can not continue due to quotas making shark kills in moderation.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not allowing Shark's fin soup will not put it on the black market</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Making laws against shark's fin soup will not put it on the black market.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redistribution is not a moral anathema.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Builds the country’s reputation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The relations of the ICC and state parties would not deteriorate if the ICC had its own enforcement arm.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It would not Interfere with other competitions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It would not cause interference as concerning other competitions.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It would be just to move now for the other bidders.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mental health can not impact on physical health</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Despite your goals in life.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth's climate has always warmed and cooled, and the 20th century rise in global temperature is outsides the bounds of natural temperature fluctuations over the past 3,000 years. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full of scientific understanding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Predictions of accelerating human-caused climate change are based upon computerized climate models that are adequate and correct. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computerized models produce adequate and correct results in predictions of accelerating human-caused climate change.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The acidity levels of the oceans are within past natural levels, and the current rise in acidity is not a natural fluctuation, but the result of human caused climate change. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rising levels of atmospheric CO2 do necessarily cause global warming, which supports the core thesis of human-caused climate change. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">It is not natural for glaciers to grow and recede, which necessarily have to do with human activities.  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Glaciers grow and recede by humans. Humans are responsible for it. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>International level: No Anglo-German Alliance possibility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The UK and Germany didn't have the potential to create an alliance in the early 1900's.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Anglo-German alliance at the international level is not a distinct possibility.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>International level: No Anglo Russian Competition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>We must not practice what we preach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libertarians want a world where no one fends for themselves.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libertarianism not only works – even in theory – if you start off with a level pl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Libertarians have policy ideas, and do not want to be able to criticize others. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libertarianism is not a movement led by people who have no ideas on how to fix things, but criticize those that do.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The investigation gets anywhere; Someone is prosecuted.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The investigation bear fruit? Someone will be prosecuted?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, Enough SOLID PROOF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enough sources for life to be supported.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full of life sustaining features</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Scotland does not need English economic muscle as through the Barnett formula England, especially the Southeast effectively subsidizes the rest of the UK in general and Scotland in particular </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The union has worked for over three hundred years and most people feel uncomfortable with the joint Scots/British identity </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>where can they get money to fend for their families as to some it"s not proffession</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>For some people music making is not a profession, and they have families to support.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isn't it simple for professional musicians get money to fend for their families?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This may not actually cause the music industry to die out</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Free music does not throttle (strangle) freedom of artistic expression </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It Takes no Money To Make Music</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creating music requires no money.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Citizens of western liberal democracies should be required to adhere to religious norms that they do not hold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>In a democratic society, religious norms can not be questioned.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>People selling illegal recreational drugs are not raking it in.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>People who sell illegal drugs are not making bunches of money.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allowing drug use is not wrong – Prohibition needn't remain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The government has a responsbility to encourage the use of dangerous activities, such as the use of drugs.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The government must endorse the use of drugs, which are dangerous.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sanctions are unnecessary for national security</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The national well-being is worst served by the continuation of economic sanctions against Cuba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba deserves no sanctions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Economic punishment is not what Cuba should be subject to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The actions of the Cuban government have not merited the Cuban government economic penalty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The embargo does not enable the United States to apply pressure on the Cuban government to improve human rights. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The United States should not maintain the Cuba embargo even Cuba has not met the conditions required to lift it. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ending the embargo before the Cuban government meets the conditions specified by US law would not make the United States look weak. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba should not be subject to sanctions because it is known to have repeatedly supported acts of terrorism. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba is known to fight terrorism so sanctions are not appropriate.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Because Cuba fights terrorism, it should not have sanctions levvied against it.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The United States is not able to target the Cuban government with its embargo while still providing assistance to Cuban citizens. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4680,15 +4708,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H624"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="D489" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D501" sqref="D501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="76.125" customWidth="1"/>
-    <col min="3" max="3" width="82.25" customWidth="1"/>
-    <col min="4" max="4" width="232.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="85.625" customWidth="1"/>
+    <col min="4" max="4" width="160" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -4696,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1277</v>
+        <v>765</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1278</v>
+        <v>766</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -4725,7 +4753,7 @@
         <v>756</v>
       </c>
       <c r="D2" t="s">
-        <v>1279</v>
+        <v>767</v>
       </c>
       <c r="E2">
         <v>-0.93639959999999989</v>
@@ -4751,7 +4779,7 @@
         <v>755</v>
       </c>
       <c r="D3" t="s">
-        <v>1280</v>
+        <v>768</v>
       </c>
       <c r="E3">
         <v>-1.8032172</v>
@@ -4777,7 +4805,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>1281</v>
+        <v>769</v>
       </c>
       <c r="E4">
         <v>-0.77033809999999991</v>
@@ -4803,7 +4831,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>1282</v>
+        <v>770</v>
       </c>
       <c r="E5">
         <v>-1.5698818999999999</v>
@@ -4829,7 +4857,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>1283</v>
+        <v>771</v>
       </c>
       <c r="E6">
         <v>-0.91301184999999996</v>
@@ -4855,7 +4883,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>1284</v>
+        <v>772</v>
       </c>
       <c r="E7">
         <v>-1.5782008000000001</v>
@@ -4881,7 +4909,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>1285</v>
+        <v>773</v>
       </c>
       <c r="E8">
         <v>-1.9647688999999999</v>
@@ -4907,7 +4935,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>1286</v>
+        <v>774</v>
       </c>
       <c r="E9">
         <v>-1.9910889000000001</v>
@@ -4933,7 +4961,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>1287</v>
+        <v>775</v>
       </c>
       <c r="E10">
         <v>-2.0078673</v>
@@ -4959,7 +4987,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>1288</v>
+        <v>776</v>
       </c>
       <c r="E11">
         <v>-1.9711173</v>
@@ -4985,7 +5013,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>1289</v>
+        <v>777</v>
       </c>
       <c r="E12">
         <v>-0.26848280000000002</v>
@@ -5011,7 +5039,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>1290</v>
+        <v>778</v>
       </c>
       <c r="E13">
         <v>-1.6009097000000001</v>
@@ -5034,10 +5062,10 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>1291</v>
+        <v>779</v>
       </c>
       <c r="D14" t="s">
-        <v>1292</v>
+        <v>780</v>
       </c>
       <c r="E14">
         <v>-0.79768074</v>
@@ -5060,10 +5088,10 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>1293</v>
+        <v>781</v>
       </c>
       <c r="D15" t="s">
-        <v>1294</v>
+        <v>782</v>
       </c>
       <c r="E15">
         <v>-0.31801853000000002</v>
@@ -5086,10 +5114,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>1295</v>
+        <v>783</v>
       </c>
       <c r="D16" t="s">
-        <v>1296</v>
+        <v>784</v>
       </c>
       <c r="E16">
         <v>-0.51916670000000009</v>
@@ -5112,10 +5140,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>1297</v>
+        <v>785</v>
       </c>
       <c r="D17" t="s">
-        <v>1303</v>
+        <v>791</v>
       </c>
       <c r="E17">
         <v>-0.59013080000000007</v>
@@ -5141,7 +5169,7 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>1298</v>
+        <v>786</v>
       </c>
       <c r="E18">
         <v>-0.69402766000000005</v>
@@ -5167,7 +5195,7 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>1299</v>
+        <v>787</v>
       </c>
       <c r="E19">
         <v>-0.85259259999999992</v>
@@ -5193,7 +5221,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>1300</v>
+        <v>788</v>
       </c>
       <c r="E20">
         <v>-0.49575113999999998</v>
@@ -5216,10 +5244,10 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>1301</v>
+        <v>789</v>
       </c>
       <c r="D21" t="s">
-        <v>1302</v>
+        <v>790</v>
       </c>
       <c r="E21">
         <v>-1.9823581E-2</v>
@@ -5245,7 +5273,7 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>1304</v>
+        <v>792</v>
       </c>
       <c r="E22">
         <v>-0.97233367000000004</v>
@@ -5271,7 +5299,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>1305</v>
+        <v>793</v>
       </c>
       <c r="E23">
         <v>-1.4495176000000001</v>
@@ -5323,7 +5351,7 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>1306</v>
+        <v>794</v>
       </c>
       <c r="E25">
         <v>-1.4367527</v>
@@ -5349,7 +5377,7 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>1307</v>
+        <v>795</v>
       </c>
       <c r="E26">
         <v>-1.4437978</v>
@@ -5375,7 +5403,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>1308</v>
+        <v>796</v>
       </c>
       <c r="E27">
         <v>-1.4844607000000001</v>
@@ -5401,7 +5429,7 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>1309</v>
+        <v>797</v>
       </c>
       <c r="E28">
         <v>-0.31137419999999999</v>
@@ -5427,7 +5455,7 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>1310</v>
+        <v>798</v>
       </c>
       <c r="E29">
         <v>-0.74849200000000005</v>
@@ -5453,7 +5481,7 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>1311</v>
+        <v>799</v>
       </c>
       <c r="E30">
         <v>-0.95219010000000004</v>
@@ -5479,7 +5507,7 @@
         <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>1312</v>
+        <v>800</v>
       </c>
       <c r="E31">
         <v>-0.45061770000000001</v>
@@ -5505,7 +5533,7 @@
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>1313</v>
+        <v>801</v>
       </c>
       <c r="E32">
         <v>-0.31103259999999988</v>
@@ -5531,7 +5559,7 @@
         <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>1314</v>
+        <v>802</v>
       </c>
       <c r="E33">
         <v>-0.42307129999999998</v>
@@ -5583,7 +5611,7 @@
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>1315</v>
+        <v>803</v>
       </c>
       <c r="E35">
         <v>-0.50847249999999999</v>
@@ -5609,7 +5637,7 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>1316</v>
+        <v>804</v>
       </c>
       <c r="E36">
         <v>-0.77613280000000007</v>
@@ -5635,7 +5663,7 @@
         <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>1317</v>
+        <v>805</v>
       </c>
       <c r="E37">
         <v>-0.65219880000000008</v>
@@ -5661,7 +5689,7 @@
         <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>1318</v>
+        <v>806</v>
       </c>
       <c r="E38">
         <v>-1.2682765</v>
@@ -5739,7 +5767,7 @@
         <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>1319</v>
+        <v>807</v>
       </c>
       <c r="E41">
         <v>-5.7867870000000002E-2</v>
@@ -5765,7 +5793,7 @@
         <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>1320</v>
+        <v>808</v>
       </c>
       <c r="E42">
         <v>-0.67920314999999998</v>
@@ -5791,7 +5819,7 @@
         <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>1321</v>
+        <v>809</v>
       </c>
       <c r="E43">
         <v>-0.61010010000000003</v>
@@ -5814,10 +5842,10 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>1322</v>
+        <v>810</v>
       </c>
       <c r="D44" t="s">
-        <v>1323</v>
+        <v>811</v>
       </c>
       <c r="E44">
         <v>-0.74924330000000006</v>
@@ -5840,10 +5868,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>1324</v>
+        <v>812</v>
       </c>
       <c r="D45" t="s">
-        <v>1325</v>
+        <v>813</v>
       </c>
       <c r="E45">
         <v>-0.89480110000000002</v>
@@ -5869,7 +5897,7 @@
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>1326</v>
+        <v>814</v>
       </c>
       <c r="E46">
         <v>-0.94953580000000004</v>
@@ -5895,7 +5923,7 @@
         <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>1327</v>
+        <v>815</v>
       </c>
       <c r="E47">
         <v>-0.66557240000000006</v>
@@ -5918,10 +5946,10 @@
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>1328</v>
+        <v>816</v>
       </c>
       <c r="D48" t="s">
-        <v>1329</v>
+        <v>817</v>
       </c>
       <c r="E48">
         <v>-0.40714739999999999</v>
@@ -5947,7 +5975,7 @@
         <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>1330</v>
+        <v>818</v>
       </c>
       <c r="E49">
         <v>-0.59368103999999999</v>
@@ -5973,7 +6001,7 @@
         <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>1331</v>
+        <v>819</v>
       </c>
       <c r="E50">
         <v>-1.9042861</v>
@@ -5999,7 +6027,7 @@
         <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>1332</v>
+        <v>820</v>
       </c>
       <c r="E51">
         <v>-1.6158485</v>
@@ -6025,7 +6053,7 @@
         <v>60</v>
       </c>
       <c r="D52" t="s">
-        <v>1333</v>
+        <v>821</v>
       </c>
       <c r="E52">
         <v>-2.0466492000000001</v>
@@ -6051,7 +6079,7 @@
         <v>62</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1334</v>
+        <v>822</v>
       </c>
       <c r="E53">
         <v>-0.67954873999999998</v>
@@ -6077,7 +6105,7 @@
         <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>1335</v>
+        <v>823</v>
       </c>
       <c r="E54">
         <v>-0.56592810000000005</v>
@@ -6103,7 +6131,7 @@
         <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>1336</v>
+        <v>824</v>
       </c>
       <c r="E55">
         <v>-0.65411569999999997</v>
@@ -6129,7 +6157,7 @@
         <v>65</v>
       </c>
       <c r="D56" t="s">
-        <v>1337</v>
+        <v>825</v>
       </c>
       <c r="E56">
         <v>-1.359326</v>
@@ -6233,7 +6261,7 @@
         <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>1338</v>
+        <v>826</v>
       </c>
       <c r="E60">
         <v>-9.2059396000000002E-2</v>
@@ -6259,7 +6287,7 @@
         <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>1339</v>
+        <v>827</v>
       </c>
       <c r="E61">
         <v>-1.6957295999999999</v>
@@ -6285,7 +6313,7 @@
         <v>72</v>
       </c>
       <c r="D62" t="s">
-        <v>1340</v>
+        <v>828</v>
       </c>
       <c r="E62">
         <v>-1.2756041</v>
@@ -6311,7 +6339,7 @@
         <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>1341</v>
+        <v>829</v>
       </c>
       <c r="E63">
         <v>-0.40462493999999999</v>
@@ -6337,7 +6365,7 @@
         <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>1342</v>
+        <v>830</v>
       </c>
       <c r="E64">
         <v>-0.94298947</v>
@@ -6363,7 +6391,7 @@
         <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>1343</v>
+        <v>831</v>
       </c>
       <c r="E65">
         <v>-0.41117013000000002</v>
@@ -6389,7 +6417,7 @@
         <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>1344</v>
+        <v>832</v>
       </c>
       <c r="E66">
         <v>-0.44928149999999989</v>
@@ -6415,7 +6443,7 @@
         <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>1345</v>
+        <v>833</v>
       </c>
       <c r="E67">
         <v>-0.53668534999999995</v>
@@ -6441,7 +6469,7 @@
         <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>1346</v>
+        <v>834</v>
       </c>
       <c r="E68">
         <v>-0.75111019999999995</v>
@@ -6467,7 +6495,7 @@
         <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>1347</v>
+        <v>835</v>
       </c>
       <c r="E69">
         <v>-0.75120633999999997</v>
@@ -6490,10 +6518,10 @@
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>1348</v>
+        <v>836</v>
       </c>
       <c r="D70" t="s">
-        <v>1349</v>
+        <v>837</v>
       </c>
       <c r="E70">
         <v>-0.68928940000000005</v>
@@ -6519,7 +6547,7 @@
         <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>1350</v>
+        <v>838</v>
       </c>
       <c r="E71">
         <v>-0.60531889999999999</v>
@@ -6545,7 +6573,7 @@
         <v>81</v>
       </c>
       <c r="D72" t="s">
-        <v>1351</v>
+        <v>839</v>
       </c>
       <c r="E72">
         <v>-0.15387449</v>
@@ -6571,7 +6599,7 @@
         <v>82</v>
       </c>
       <c r="D73" t="s">
-        <v>1352</v>
+        <v>840</v>
       </c>
       <c r="E73">
         <v>-0.27020082000000001</v>
@@ -6597,7 +6625,7 @@
         <v>84</v>
       </c>
       <c r="D74" t="s">
-        <v>1353</v>
+        <v>841</v>
       </c>
       <c r="E74">
         <v>-0.29752526000000001</v>
@@ -6623,7 +6651,7 @@
         <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>1354</v>
+        <v>842</v>
       </c>
       <c r="E75">
         <v>-0.88126650000000006</v>
@@ -6649,7 +6677,7 @@
         <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>1355</v>
+        <v>843</v>
       </c>
       <c r="E76">
         <v>-0.79900969999999993</v>
@@ -6672,10 +6700,10 @@
         <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>1356</v>
+        <v>844</v>
       </c>
       <c r="D77" t="s">
-        <v>1357</v>
+        <v>845</v>
       </c>
       <c r="E77">
         <v>-6.6282510000000003E-2</v>
@@ -6701,7 +6729,7 @@
         <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>1358</v>
+        <v>846</v>
       </c>
       <c r="E78">
         <v>-0.60957589999999995</v>
@@ -6724,10 +6752,10 @@
         <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>1359</v>
+        <v>847</v>
       </c>
       <c r="D79" t="s">
-        <v>1360</v>
+        <v>848</v>
       </c>
       <c r="E79">
         <v>-0.35454047</v>
@@ -6750,10 +6778,10 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>1361</v>
+        <v>849</v>
       </c>
       <c r="D80" t="s">
-        <v>1362</v>
+        <v>850</v>
       </c>
       <c r="E80">
         <v>-1.6839211000000001</v>
@@ -6779,7 +6807,7 @@
         <v>91</v>
       </c>
       <c r="D81" t="s">
-        <v>1363</v>
+        <v>851</v>
       </c>
       <c r="E81">
         <v>-6.3229389999999996E-2</v>
@@ -6805,7 +6833,7 @@
         <v>93</v>
       </c>
       <c r="D82" t="s">
-        <v>1364</v>
+        <v>852</v>
       </c>
       <c r="E82">
         <v>-0.9032848</v>
@@ -6831,7 +6859,7 @@
         <v>95</v>
       </c>
       <c r="D83" t="s">
-        <v>1365</v>
+        <v>853</v>
       </c>
       <c r="E83">
         <v>-0.89735490000000007</v>
@@ -6857,7 +6885,7 @@
         <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>1366</v>
+        <v>854</v>
       </c>
       <c r="E84">
         <v>2.5850244000000001E-2</v>
@@ -6909,7 +6937,7 @@
         <v>101</v>
       </c>
       <c r="D86" t="s">
-        <v>1367</v>
+        <v>855</v>
       </c>
       <c r="E86">
         <v>-0.54866475000000003</v>
@@ -6935,7 +6963,7 @@
         <v>102</v>
       </c>
       <c r="D87" t="s">
-        <v>1368</v>
+        <v>856</v>
       </c>
       <c r="E87">
         <v>-0.70152159999999997</v>
@@ -6958,10 +6986,10 @@
         <v>103</v>
       </c>
       <c r="C88" t="s">
-        <v>1369</v>
+        <v>857</v>
       </c>
       <c r="D88" t="s">
-        <v>1370</v>
+        <v>858</v>
       </c>
       <c r="E88">
         <v>-1.7069603</v>
@@ -6987,7 +7015,7 @@
         <v>104</v>
       </c>
       <c r="D89" t="s">
-        <v>1371</v>
+        <v>859</v>
       </c>
       <c r="E89">
         <v>-1.6475816000000001</v>
@@ -7010,10 +7038,10 @@
         <v>105</v>
       </c>
       <c r="C90" t="s">
-        <v>1372</v>
+        <v>860</v>
       </c>
       <c r="D90" t="s">
-        <v>1373</v>
+        <v>861</v>
       </c>
       <c r="E90">
         <v>-1.1461047</v>
@@ -7039,7 +7067,7 @@
         <v>107</v>
       </c>
       <c r="D91" t="s">
-        <v>1374</v>
+        <v>862</v>
       </c>
       <c r="E91">
         <v>-1.4363899</v>
@@ -7065,7 +7093,7 @@
         <v>108</v>
       </c>
       <c r="D92" t="s">
-        <v>1375</v>
+        <v>863</v>
       </c>
       <c r="E92">
         <v>-1.8142806</v>
@@ -7091,7 +7119,7 @@
         <v>109</v>
       </c>
       <c r="D93" t="s">
-        <v>1376</v>
+        <v>864</v>
       </c>
       <c r="E93">
         <v>-0.58838299999999999</v>
@@ -7117,7 +7145,7 @@
         <v>110</v>
       </c>
       <c r="D94" t="s">
-        <v>1377</v>
+        <v>865</v>
       </c>
       <c r="E94">
         <v>-0.87184525000000002</v>
@@ -7143,7 +7171,7 @@
         <v>111</v>
       </c>
       <c r="D95" t="s">
-        <v>1378</v>
+        <v>866</v>
       </c>
       <c r="E95">
         <v>-0.70749390000000001</v>
@@ -7169,7 +7197,7 @@
         <v>112</v>
       </c>
       <c r="D96" t="s">
-        <v>1379</v>
+        <v>867</v>
       </c>
       <c r="E96">
         <v>-1.6058262999999999</v>
@@ -7192,10 +7220,10 @@
         <v>113</v>
       </c>
       <c r="C97" t="s">
-        <v>1380</v>
+        <v>868</v>
       </c>
       <c r="D97" t="s">
-        <v>1381</v>
+        <v>869</v>
       </c>
       <c r="E97">
         <v>-4.3378234000000002E-2</v>
@@ -7218,10 +7246,10 @@
         <v>113</v>
       </c>
       <c r="C98" t="s">
-        <v>1382</v>
+        <v>870</v>
       </c>
       <c r="D98" t="s">
-        <v>1383</v>
+        <v>871</v>
       </c>
       <c r="E98">
         <v>-0.52170943999999997</v>
@@ -7244,10 +7272,10 @@
         <v>113</v>
       </c>
       <c r="C99" t="s">
-        <v>1384</v>
+        <v>872</v>
       </c>
       <c r="D99" t="s">
-        <v>1385</v>
+        <v>873</v>
       </c>
       <c r="E99">
         <v>-0.37882036000000002</v>
@@ -7270,10 +7298,10 @@
         <v>113</v>
       </c>
       <c r="C100" t="s">
-        <v>1387</v>
+        <v>875</v>
       </c>
       <c r="D100" t="s">
-        <v>1386</v>
+        <v>874</v>
       </c>
       <c r="E100">
         <v>-0.40922566999999999</v>
@@ -7299,7 +7327,7 @@
         <v>114</v>
       </c>
       <c r="D101" t="s">
-        <v>765</v>
+        <v>876</v>
       </c>
       <c r="E101">
         <v>-0.61779659999999992</v>
@@ -7325,7 +7353,7 @@
         <v>115</v>
       </c>
       <c r="D102" t="s">
-        <v>766</v>
+        <v>877</v>
       </c>
       <c r="E102">
         <v>-7.6189069999999998E-2</v>
@@ -7351,7 +7379,7 @@
         <v>116</v>
       </c>
       <c r="D103" t="s">
-        <v>767</v>
+        <v>878</v>
       </c>
       <c r="E103">
         <v>-0.61488310000000002</v>
@@ -7377,7 +7405,7 @@
         <v>117</v>
       </c>
       <c r="D104" t="s">
-        <v>768</v>
+        <v>879</v>
       </c>
       <c r="E104">
         <v>-0.44669908000000003</v>
@@ -7403,7 +7431,7 @@
         <v>118</v>
       </c>
       <c r="D105" t="s">
-        <v>769</v>
+        <v>880</v>
       </c>
       <c r="E105">
         <v>-0.57440144000000004</v>
@@ -7429,7 +7457,7 @@
         <v>119</v>
       </c>
       <c r="D106" t="s">
-        <v>770</v>
+        <v>881</v>
       </c>
       <c r="E106">
         <v>-0.22683503999999999</v>
@@ -7455,7 +7483,7 @@
         <v>120</v>
       </c>
       <c r="D107" t="s">
-        <v>771</v>
+        <v>882</v>
       </c>
       <c r="E107">
         <v>-0.12509495000000001</v>
@@ -7481,7 +7509,7 @@
         <v>121</v>
       </c>
       <c r="D108" t="s">
-        <v>772</v>
+        <v>883</v>
       </c>
       <c r="E108">
         <v>-0.27837250000000002</v>
@@ -7507,7 +7535,7 @@
         <v>122</v>
       </c>
       <c r="D109" t="s">
-        <v>773</v>
+        <v>884</v>
       </c>
       <c r="E109">
         <v>-0.24335709999999999</v>
@@ -7533,7 +7561,7 @@
         <v>124</v>
       </c>
       <c r="D110" t="s">
-        <v>774</v>
+        <v>885</v>
       </c>
       <c r="E110">
         <v>-1.5047994</v>
@@ -7559,7 +7587,7 @@
         <v>125</v>
       </c>
       <c r="D111" t="s">
-        <v>775</v>
+        <v>886</v>
       </c>
       <c r="E111">
         <v>-0.58199400000000001</v>
@@ -7585,7 +7613,7 @@
         <v>126</v>
       </c>
       <c r="D112" t="s">
-        <v>776</v>
+        <v>887</v>
       </c>
       <c r="E112">
         <v>-1.9303162</v>
@@ -7611,7 +7639,7 @@
         <v>127</v>
       </c>
       <c r="D113" t="s">
-        <v>777</v>
+        <v>888</v>
       </c>
       <c r="E113">
         <v>-1.4875689000000001</v>
@@ -7637,7 +7665,7 @@
         <v>128</v>
       </c>
       <c r="D114" t="s">
-        <v>778</v>
+        <v>889</v>
       </c>
       <c r="E114">
         <v>-1.162633</v>
@@ -7663,7 +7691,7 @@
         <v>129</v>
       </c>
       <c r="D115" t="s">
-        <v>779</v>
+        <v>890</v>
       </c>
       <c r="E115">
         <v>-1.6428502</v>
@@ -7689,7 +7717,7 @@
         <v>131</v>
       </c>
       <c r="D116" t="s">
-        <v>780</v>
+        <v>891</v>
       </c>
       <c r="E116">
         <v>-1.7769866000000001</v>
@@ -7715,7 +7743,7 @@
         <v>132</v>
       </c>
       <c r="D117" t="s">
-        <v>781</v>
+        <v>892</v>
       </c>
       <c r="E117">
         <v>-1.9743204000000001</v>
@@ -7741,7 +7769,7 @@
         <v>134</v>
       </c>
       <c r="D118" t="s">
-        <v>782</v>
+        <v>893</v>
       </c>
       <c r="E118">
         <v>-1.0908157999999999</v>
@@ -7767,7 +7795,7 @@
         <v>136</v>
       </c>
       <c r="D119" t="s">
-        <v>783</v>
+        <v>894</v>
       </c>
       <c r="E119">
         <v>-1.7048323999999999</v>
@@ -7793,7 +7821,7 @@
         <v>137</v>
       </c>
       <c r="D120" t="s">
-        <v>784</v>
+        <v>895</v>
       </c>
       <c r="E120">
         <v>-2.0930133</v>
@@ -7819,7 +7847,7 @@
         <v>139</v>
       </c>
       <c r="D121" t="s">
-        <v>785</v>
+        <v>896</v>
       </c>
       <c r="E121">
         <v>-0.68670505000000004</v>
@@ -7845,7 +7873,7 @@
         <v>141</v>
       </c>
       <c r="D122" t="s">
-        <v>786</v>
+        <v>141</v>
       </c>
       <c r="E122">
         <v>-0.94429530000000017</v>
@@ -7871,7 +7899,7 @@
         <v>142</v>
       </c>
       <c r="D123" t="s">
-        <v>787</v>
+        <v>897</v>
       </c>
       <c r="E123">
         <v>-1.3345388</v>
@@ -7897,7 +7925,7 @@
         <v>143</v>
       </c>
       <c r="D124" t="s">
-        <v>788</v>
+        <v>898</v>
       </c>
       <c r="E124">
         <v>-0.61555749999999998</v>
@@ -7923,7 +7951,7 @@
         <v>144</v>
       </c>
       <c r="D125" t="s">
-        <v>789</v>
+        <v>899</v>
       </c>
       <c r="E125">
         <v>-0.83103406000000002</v>
@@ -7949,7 +7977,7 @@
         <v>145</v>
       </c>
       <c r="D126" t="s">
-        <v>790</v>
+        <v>900</v>
       </c>
       <c r="E126">
         <v>-1.8935797000000001</v>
@@ -7975,7 +8003,7 @@
         <v>146</v>
       </c>
       <c r="D127" t="s">
-        <v>791</v>
+        <v>901</v>
       </c>
       <c r="E127">
         <v>-0.75049149999999998</v>
@@ -8001,7 +8029,7 @@
         <v>148</v>
       </c>
       <c r="D128" t="s">
-        <v>792</v>
+        <v>902</v>
       </c>
       <c r="E128">
         <v>-0.52892729999999999</v>
@@ -8027,7 +8055,7 @@
         <v>149</v>
       </c>
       <c r="D129" t="s">
-        <v>793</v>
+        <v>903</v>
       </c>
       <c r="E129">
         <v>-0.46920925000000002</v>
@@ -8053,7 +8081,7 @@
         <v>150</v>
       </c>
       <c r="D130" t="s">
-        <v>794</v>
+        <v>904</v>
       </c>
       <c r="E130">
         <v>-1.0122753</v>
@@ -8079,7 +8107,7 @@
         <v>152</v>
       </c>
       <c r="D131" t="s">
-        <v>795</v>
+        <v>905</v>
       </c>
       <c r="E131">
         <v>-5.1749990000000003E-2</v>
@@ -8105,7 +8133,7 @@
         <v>154</v>
       </c>
       <c r="D132" t="s">
-        <v>796</v>
+        <v>906</v>
       </c>
       <c r="E132">
         <v>-1.1807019999999999</v>
@@ -8131,7 +8159,7 @@
         <v>155</v>
       </c>
       <c r="D133" t="s">
-        <v>797</v>
+        <v>907</v>
       </c>
       <c r="E133">
         <v>-0.29138407</v>
@@ -8157,7 +8185,7 @@
         <v>156</v>
       </c>
       <c r="D134" t="s">
-        <v>798</v>
+        <v>908</v>
       </c>
       <c r="E134">
         <v>-0.73281289999999999</v>
@@ -8183,7 +8211,7 @@
         <v>157</v>
       </c>
       <c r="D135" t="s">
-        <v>799</v>
+        <v>909</v>
       </c>
       <c r="E135">
         <v>-0.66667783000000003</v>
@@ -8209,7 +8237,7 @@
         <v>159</v>
       </c>
       <c r="D136" t="s">
-        <v>800</v>
+        <v>910</v>
       </c>
       <c r="E136">
         <v>-2.0177475999999999</v>
@@ -8235,7 +8263,7 @@
         <v>160</v>
       </c>
       <c r="D137" t="s">
-        <v>801</v>
+        <v>911</v>
       </c>
       <c r="E137">
         <v>-0.79545650000000001</v>
@@ -8261,7 +8289,7 @@
         <v>161</v>
       </c>
       <c r="D138" t="s">
-        <v>802</v>
+        <v>912</v>
       </c>
       <c r="E138">
         <v>-2.0630639999999998</v>
@@ -8287,7 +8315,7 @@
         <v>162</v>
       </c>
       <c r="D139" t="s">
-        <v>803</v>
+        <v>913</v>
       </c>
       <c r="E139">
         <v>-0.51877505000000002</v>
@@ -8313,7 +8341,7 @@
         <v>163</v>
       </c>
       <c r="D140" t="s">
-        <v>804</v>
+        <v>914</v>
       </c>
       <c r="E140">
         <v>-0.63666314000000002</v>
@@ -8339,7 +8367,7 @@
         <v>165</v>
       </c>
       <c r="D141" t="s">
-        <v>805</v>
+        <v>915</v>
       </c>
       <c r="E141">
         <v>-0.50921249999999996</v>
@@ -8365,7 +8393,7 @@
         <v>166</v>
       </c>
       <c r="D142" t="s">
-        <v>806</v>
+        <v>916</v>
       </c>
       <c r="E142">
         <v>-0.42695159999999999</v>
@@ -8391,7 +8419,7 @@
         <v>167</v>
       </c>
       <c r="D143" t="s">
-        <v>807</v>
+        <v>917</v>
       </c>
       <c r="E143">
         <v>-0.20649028</v>
@@ -8417,7 +8445,7 @@
         <v>168</v>
       </c>
       <c r="D144" t="s">
-        <v>808</v>
+        <v>918</v>
       </c>
       <c r="E144">
         <v>-0.66809669999999999</v>
@@ -8443,7 +8471,7 @@
         <v>169</v>
       </c>
       <c r="D145" t="s">
-        <v>809</v>
+        <v>919</v>
       </c>
       <c r="E145">
         <v>-0.29640393999999998</v>
@@ -8469,7 +8497,7 @@
         <v>171</v>
       </c>
       <c r="D146" t="s">
-        <v>810</v>
+        <v>920</v>
       </c>
       <c r="E146">
         <v>-0.71614253999999999</v>
@@ -8495,7 +8523,7 @@
         <v>172</v>
       </c>
       <c r="D147" t="s">
-        <v>811</v>
+        <v>921</v>
       </c>
       <c r="E147">
         <v>-1.6804551000000001</v>
@@ -8521,7 +8549,7 @@
         <v>173</v>
       </c>
       <c r="D148" t="s">
-        <v>812</v>
+        <v>922</v>
       </c>
       <c r="E148">
         <v>-0.59096610000000005</v>
@@ -8547,7 +8575,7 @@
         <v>175</v>
       </c>
       <c r="D149" t="s">
-        <v>813</v>
+        <v>923</v>
       </c>
       <c r="E149">
         <v>-0.48893472999999998</v>
@@ -8573,7 +8601,7 @@
         <v>176</v>
       </c>
       <c r="D150" t="s">
-        <v>814</v>
+        <v>924</v>
       </c>
       <c r="E150">
         <v>-0.22826993000000001</v>
@@ -8599,7 +8627,7 @@
         <v>177</v>
       </c>
       <c r="D151" t="s">
-        <v>815</v>
+        <v>925</v>
       </c>
       <c r="E151">
         <v>-0.72207737000000005</v>
@@ -8625,7 +8653,7 @@
         <v>178</v>
       </c>
       <c r="D152" t="s">
-        <v>816</v>
+        <v>926</v>
       </c>
       <c r="E152">
         <v>-1.0540917000000001</v>
@@ -8651,7 +8679,7 @@
         <v>180</v>
       </c>
       <c r="D153" t="s">
-        <v>817</v>
+        <v>927</v>
       </c>
       <c r="E153">
         <v>-1.8377645</v>
@@ -8677,7 +8705,7 @@
         <v>181</v>
       </c>
       <c r="D154" t="s">
-        <v>818</v>
+        <v>928</v>
       </c>
       <c r="E154">
         <v>-1.0850215000000001</v>
@@ -8703,7 +8731,7 @@
         <v>182</v>
       </c>
       <c r="D155" t="s">
-        <v>819</v>
+        <v>929</v>
       </c>
       <c r="E155">
         <v>-1.1661097</v>
@@ -8729,7 +8757,7 @@
         <v>184</v>
       </c>
       <c r="D156" t="s">
-        <v>820</v>
+        <v>930</v>
       </c>
       <c r="E156">
         <v>-0.33641650000000001</v>
@@ -8755,7 +8783,7 @@
         <v>185</v>
       </c>
       <c r="D157" t="s">
-        <v>821</v>
+        <v>931</v>
       </c>
       <c r="E157">
         <v>-0.88968219999999998</v>
@@ -8781,7 +8809,7 @@
         <v>187</v>
       </c>
       <c r="D158" t="s">
-        <v>822</v>
+        <v>932</v>
       </c>
       <c r="E158">
         <v>-0.17571539999999999</v>
@@ -8807,7 +8835,7 @@
         <v>188</v>
       </c>
       <c r="D159" t="s">
-        <v>823</v>
+        <v>933</v>
       </c>
       <c r="E159">
         <v>-1.2238587000000001</v>
@@ -8833,7 +8861,7 @@
         <v>189</v>
       </c>
       <c r="D160" t="s">
-        <v>824</v>
+        <v>934</v>
       </c>
       <c r="E160">
         <v>-0.52066060000000003</v>
@@ -8859,7 +8887,7 @@
         <v>190</v>
       </c>
       <c r="D161" t="s">
-        <v>825</v>
+        <v>935</v>
       </c>
       <c r="E161">
         <v>-0.27931643</v>
@@ -8885,7 +8913,7 @@
         <v>192</v>
       </c>
       <c r="D162" t="s">
-        <v>826</v>
+        <v>936</v>
       </c>
       <c r="E162">
         <v>-1.1095950000000001</v>
@@ -8911,7 +8939,7 @@
         <v>194</v>
       </c>
       <c r="D163" t="s">
-        <v>827</v>
+        <v>937</v>
       </c>
       <c r="E163">
         <v>-1.8372653999999999</v>
@@ -8937,7 +8965,7 @@
         <v>196</v>
       </c>
       <c r="D164" t="s">
-        <v>828</v>
+        <v>938</v>
       </c>
       <c r="E164">
         <v>-0.69329434999999995</v>
@@ -8963,7 +8991,7 @@
         <v>197</v>
       </c>
       <c r="D165" t="s">
-        <v>829</v>
+        <v>939</v>
       </c>
       <c r="E165">
         <v>-0.41795265999999998</v>
@@ -8989,7 +9017,7 @@
         <v>199</v>
       </c>
       <c r="D166" t="s">
-        <v>830</v>
+        <v>940</v>
       </c>
       <c r="E166">
         <v>-0.24676614999999999</v>
@@ -9015,7 +9043,7 @@
         <v>200</v>
       </c>
       <c r="D167" t="s">
-        <v>831</v>
+        <v>941</v>
       </c>
       <c r="E167">
         <v>3.063254E-2</v>
@@ -9041,7 +9069,7 @@
         <v>201</v>
       </c>
       <c r="D168" t="s">
-        <v>832</v>
+        <v>942</v>
       </c>
       <c r="E168">
         <v>-0.41752177000000001</v>
@@ -9067,7 +9095,7 @@
         <v>203</v>
       </c>
       <c r="D169" t="s">
-        <v>833</v>
+        <v>943</v>
       </c>
       <c r="E169">
         <v>-1.0015772999999999</v>
@@ -9093,7 +9121,7 @@
         <v>205</v>
       </c>
       <c r="D170" t="s">
-        <v>834</v>
+        <v>944</v>
       </c>
       <c r="E170">
         <v>-1.6102354999999999</v>
@@ -9119,7 +9147,7 @@
         <v>206</v>
       </c>
       <c r="D171" t="s">
-        <v>835</v>
+        <v>945</v>
       </c>
       <c r="E171">
         <v>-1.5443165999999999</v>
@@ -9145,7 +9173,7 @@
         <v>207</v>
       </c>
       <c r="D172" t="s">
-        <v>836</v>
+        <v>946</v>
       </c>
       <c r="E172">
         <v>-1.6238471000000001</v>
@@ -9171,7 +9199,7 @@
         <v>208</v>
       </c>
       <c r="D173" t="s">
-        <v>837</v>
+        <v>947</v>
       </c>
       <c r="E173">
         <v>-0.60028619999999988</v>
@@ -9197,7 +9225,7 @@
         <v>209</v>
       </c>
       <c r="D174" t="s">
-        <v>838</v>
+        <v>948</v>
       </c>
       <c r="E174">
         <v>-0.67551260000000002</v>
@@ -9223,7 +9251,7 @@
         <v>210</v>
       </c>
       <c r="D175" t="s">
-        <v>839</v>
+        <v>949</v>
       </c>
       <c r="E175">
         <v>-1.1688643000000001</v>
@@ -9249,7 +9277,7 @@
         <v>211</v>
       </c>
       <c r="D176" t="s">
-        <v>840</v>
+        <v>950</v>
       </c>
       <c r="E176">
         <v>-0.86163040000000002</v>
@@ -9275,7 +9303,7 @@
         <v>212</v>
       </c>
       <c r="D177" t="s">
-        <v>841</v>
+        <v>951</v>
       </c>
       <c r="E177">
         <v>-1.0867331</v>
@@ -9301,7 +9329,7 @@
         <v>213</v>
       </c>
       <c r="D178" t="s">
-        <v>842</v>
+        <v>952</v>
       </c>
       <c r="E178">
         <v>-1.0908085999999999</v>
@@ -9327,7 +9355,7 @@
         <v>214</v>
       </c>
       <c r="D179" t="s">
-        <v>843</v>
+        <v>953</v>
       </c>
       <c r="E179">
         <v>-0.38068160000000001</v>
@@ -9353,7 +9381,7 @@
         <v>215</v>
       </c>
       <c r="D180" t="s">
-        <v>844</v>
+        <v>954</v>
       </c>
       <c r="E180">
         <v>-1.3989022</v>
@@ -9379,7 +9407,7 @@
         <v>216</v>
       </c>
       <c r="D181" t="s">
-        <v>845</v>
+        <v>955</v>
       </c>
       <c r="E181">
         <v>-1.2823621999999999</v>
@@ -9405,7 +9433,7 @@
         <v>217</v>
       </c>
       <c r="D182" t="s">
-        <v>846</v>
+        <v>956</v>
       </c>
       <c r="E182">
         <v>-7.3607064999999999E-2</v>
@@ -9431,7 +9459,7 @@
         <v>218</v>
       </c>
       <c r="D183" t="s">
-        <v>847</v>
+        <v>957</v>
       </c>
       <c r="E183">
         <v>-0.3036353</v>
@@ -9457,7 +9485,7 @@
         <v>219</v>
       </c>
       <c r="D184" t="s">
-        <v>848</v>
+        <v>958</v>
       </c>
       <c r="E184">
         <v>-0.37836360000000002</v>
@@ -9483,7 +9511,7 @@
         <v>220</v>
       </c>
       <c r="D185" t="s">
-        <v>849</v>
+        <v>959</v>
       </c>
       <c r="E185">
         <v>-0.18340687</v>
@@ -9509,7 +9537,7 @@
         <v>221</v>
       </c>
       <c r="D186" t="s">
-        <v>850</v>
+        <v>960</v>
       </c>
       <c r="E186">
         <v>-2.0459591999999999E-2</v>
@@ -9535,7 +9563,7 @@
         <v>222</v>
       </c>
       <c r="D187" t="s">
-        <v>851</v>
+        <v>961</v>
       </c>
       <c r="E187">
         <v>-0.39739000000000002</v>
@@ -9561,7 +9589,7 @@
         <v>223</v>
       </c>
       <c r="D188" t="s">
-        <v>852</v>
+        <v>962</v>
       </c>
       <c r="E188">
         <v>-0.6596767</v>
@@ -9587,7 +9615,7 @@
         <v>224</v>
       </c>
       <c r="D189" t="s">
-        <v>853</v>
+        <v>963</v>
       </c>
       <c r="E189">
         <v>-0.54581564999999999</v>
@@ -9613,7 +9641,7 @@
         <v>226</v>
       </c>
       <c r="D190" t="s">
-        <v>854</v>
+        <v>964</v>
       </c>
       <c r="E190">
         <v>-0.74714594999999995</v>
@@ -9639,7 +9667,7 @@
         <v>227</v>
       </c>
       <c r="D191" t="s">
-        <v>855</v>
+        <v>965</v>
       </c>
       <c r="E191">
         <v>-0.50584779999999996</v>
@@ -9665,7 +9693,7 @@
         <v>228</v>
       </c>
       <c r="D192" t="s">
-        <v>856</v>
+        <v>966</v>
       </c>
       <c r="E192">
         <v>-0.63413310000000001</v>
@@ -9691,7 +9719,7 @@
         <v>230</v>
       </c>
       <c r="D193" t="s">
-        <v>857</v>
+        <v>967</v>
       </c>
       <c r="E193">
         <v>-0.14431733999999999</v>
@@ -9717,7 +9745,7 @@
         <v>231</v>
       </c>
       <c r="D194" t="s">
-        <v>858</v>
+        <v>968</v>
       </c>
       <c r="E194">
         <v>-0.5282637</v>
@@ -9743,7 +9771,7 @@
         <v>233</v>
       </c>
       <c r="D195" t="s">
-        <v>859</v>
+        <v>969</v>
       </c>
       <c r="E195">
         <v>-0.49286651999999997</v>
@@ -9769,7 +9797,7 @@
         <v>234</v>
       </c>
       <c r="D196" t="s">
-        <v>860</v>
+        <v>970</v>
       </c>
       <c r="E196">
         <v>-0.52554820000000002</v>
@@ -9795,7 +9823,7 @@
         <v>236</v>
       </c>
       <c r="D197" t="s">
-        <v>861</v>
+        <v>971</v>
       </c>
       <c r="E197">
         <v>-0.63269264000000003</v>
@@ -9821,7 +9849,7 @@
         <v>237</v>
       </c>
       <c r="D198" t="s">
-        <v>862</v>
+        <v>972</v>
       </c>
       <c r="E198">
         <v>-0.92789334000000001</v>
@@ -9847,7 +9875,7 @@
         <v>238</v>
       </c>
       <c r="D199" t="s">
-        <v>863</v>
+        <v>973</v>
       </c>
       <c r="E199">
         <v>-1.2864530000000001</v>
@@ -9873,7 +9901,7 @@
         <v>240</v>
       </c>
       <c r="D200" t="s">
-        <v>864</v>
+        <v>974</v>
       </c>
       <c r="E200">
         <v>-0.62569560000000002</v>
@@ -9899,7 +9927,7 @@
         <v>241</v>
       </c>
       <c r="D201" t="s">
-        <v>865</v>
+        <v>975</v>
       </c>
       <c r="E201">
         <v>-0.11433414</v>
@@ -9925,7 +9953,7 @@
         <v>242</v>
       </c>
       <c r="D202" t="s">
-        <v>866</v>
+        <v>976</v>
       </c>
       <c r="E202">
         <v>-0.43173932999999998</v>
@@ -9951,7 +9979,7 @@
         <v>243</v>
       </c>
       <c r="D203" t="s">
-        <v>867</v>
+        <v>977</v>
       </c>
       <c r="E203">
         <v>-0.80247959999999996</v>
@@ -9977,7 +10005,7 @@
         <v>244</v>
       </c>
       <c r="D204" t="s">
-        <v>868</v>
+        <v>978</v>
       </c>
       <c r="E204">
         <v>-0.61139195999999996</v>
@@ -10003,7 +10031,7 @@
         <v>245</v>
       </c>
       <c r="D205" t="s">
-        <v>869</v>
+        <v>979</v>
       </c>
       <c r="E205">
         <v>-0.44625503</v>
@@ -10029,7 +10057,7 @@
         <v>246</v>
       </c>
       <c r="D206" t="s">
-        <v>870</v>
+        <v>980</v>
       </c>
       <c r="E206">
         <v>-0.39418829999999999</v>
@@ -10055,7 +10083,7 @@
         <v>248</v>
       </c>
       <c r="D207" t="s">
-        <v>871</v>
+        <v>981</v>
       </c>
       <c r="E207">
         <v>-1.9432910999999999</v>
@@ -10081,7 +10109,7 @@
         <v>250</v>
       </c>
       <c r="D208" t="s">
-        <v>872</v>
+        <v>982</v>
       </c>
       <c r="E208">
         <v>-0.86454570000000008</v>
@@ -10107,7 +10135,7 @@
         <v>251</v>
       </c>
       <c r="D209" t="s">
-        <v>873</v>
+        <v>251</v>
       </c>
       <c r="E209">
         <v>-0.76693889999999998</v>
@@ -10133,7 +10161,7 @@
         <v>253</v>
       </c>
       <c r="D210" t="s">
-        <v>874</v>
+        <v>983</v>
       </c>
       <c r="E210">
         <v>-0.59345700000000001</v>
@@ -10159,7 +10187,7 @@
         <v>255</v>
       </c>
       <c r="D211" t="s">
-        <v>875</v>
+        <v>984</v>
       </c>
       <c r="E211">
         <v>-1.9887846</v>
@@ -10185,7 +10213,7 @@
         <v>256</v>
       </c>
       <c r="D212" t="s">
-        <v>876</v>
+        <v>985</v>
       </c>
       <c r="E212">
         <v>-1.9903599000000001</v>
@@ -10211,7 +10239,7 @@
         <v>257</v>
       </c>
       <c r="D213" t="s">
-        <v>877</v>
+        <v>986</v>
       </c>
       <c r="E213">
         <v>-2.0101724000000001</v>
@@ -10237,7 +10265,7 @@
         <v>258</v>
       </c>
       <c r="D214" t="s">
-        <v>878</v>
+        <v>987</v>
       </c>
       <c r="E214">
         <v>-2.0671930000000001</v>
@@ -10263,7 +10291,7 @@
         <v>259</v>
       </c>
       <c r="D215" t="s">
-        <v>879</v>
+        <v>259</v>
       </c>
       <c r="E215">
         <v>-2.0256264000000002</v>
@@ -10289,7 +10317,7 @@
         <v>260</v>
       </c>
       <c r="D216" t="s">
-        <v>880</v>
+        <v>988</v>
       </c>
       <c r="E216">
         <v>-0.75893617000000002</v>
@@ -10315,7 +10343,7 @@
         <v>262</v>
       </c>
       <c r="D217" t="s">
-        <v>881</v>
+        <v>262</v>
       </c>
       <c r="E217">
         <v>-0.93060699999999996</v>
@@ -10341,7 +10369,7 @@
         <v>263</v>
       </c>
       <c r="D218" t="s">
-        <v>882</v>
+        <v>989</v>
       </c>
       <c r="E218">
         <v>-0.60038100000000005</v>
@@ -10367,7 +10395,7 @@
         <v>265</v>
       </c>
       <c r="D219" t="s">
-        <v>883</v>
+        <v>990</v>
       </c>
       <c r="E219">
         <v>-2.2538729E-2</v>
@@ -10393,7 +10421,7 @@
         <v>266</v>
       </c>
       <c r="D220" t="s">
-        <v>884</v>
+        <v>991</v>
       </c>
       <c r="E220">
         <v>-4.8284010000000002E-2</v>
@@ -10419,7 +10447,7 @@
         <v>267</v>
       </c>
       <c r="D221" t="s">
-        <v>885</v>
+        <v>992</v>
       </c>
       <c r="E221">
         <v>-0.11590778</v>
@@ -10445,7 +10473,7 @@
         <v>268</v>
       </c>
       <c r="D222" t="s">
-        <v>886</v>
+        <v>993</v>
       </c>
       <c r="E222">
         <v>-0.5429948</v>
@@ -10471,7 +10499,7 @@
         <v>269</v>
       </c>
       <c r="D223" t="s">
-        <v>887</v>
+        <v>994</v>
       </c>
       <c r="E223">
         <v>-0.58411299999999999</v>
@@ -10497,7 +10525,7 @@
         <v>270</v>
       </c>
       <c r="D224" t="s">
-        <v>888</v>
+        <v>996</v>
       </c>
       <c r="E224">
         <v>-0.27263915999999999</v>
@@ -10523,7 +10551,7 @@
         <v>271</v>
       </c>
       <c r="D225" t="s">
-        <v>889</v>
+        <v>995</v>
       </c>
       <c r="E225">
         <v>-0.17539056</v>
@@ -10549,7 +10577,7 @@
         <v>272</v>
       </c>
       <c r="D226" t="s">
-        <v>890</v>
+        <v>997</v>
       </c>
       <c r="E226">
         <v>-6.5825969999999998E-2</v>
@@ -10575,7 +10603,7 @@
         <v>273</v>
       </c>
       <c r="D227" t="s">
-        <v>891</v>
+        <v>998</v>
       </c>
       <c r="E227">
         <v>-7.8195260000000003E-2</v>
@@ -10601,7 +10629,7 @@
         <v>274</v>
       </c>
       <c r="D228" t="s">
-        <v>892</v>
+        <v>999</v>
       </c>
       <c r="E228">
         <v>-0.36204138000000002</v>
@@ -10627,7 +10655,7 @@
         <v>275</v>
       </c>
       <c r="D229" t="s">
-        <v>893</v>
+        <v>1000</v>
       </c>
       <c r="E229">
         <v>-0.48788707999999997</v>
@@ -10653,7 +10681,7 @@
         <v>276</v>
       </c>
       <c r="D230" t="s">
-        <v>894</v>
+        <v>1001</v>
       </c>
       <c r="E230">
         <v>-0.67697083999999996</v>
@@ -10679,7 +10707,7 @@
         <v>277</v>
       </c>
       <c r="D231" t="s">
-        <v>895</v>
+        <v>1002</v>
       </c>
       <c r="E231">
         <v>-0.13091800000000001</v>
@@ -10705,7 +10733,7 @@
         <v>279</v>
       </c>
       <c r="D232" t="s">
-        <v>896</v>
+        <v>1003</v>
       </c>
       <c r="E232">
         <v>-0.77992963999999998</v>
@@ -10731,7 +10759,7 @@
         <v>280</v>
       </c>
       <c r="D233" t="s">
-        <v>897</v>
+        <v>1004</v>
       </c>
       <c r="E233">
         <v>-2.0570338000000001</v>
@@ -10757,7 +10785,7 @@
         <v>281</v>
       </c>
       <c r="D234" t="s">
-        <v>898</v>
+        <v>1005</v>
       </c>
       <c r="E234">
         <v>-1.2368456000000001</v>
@@ -10783,7 +10811,7 @@
         <v>282</v>
       </c>
       <c r="D235" t="s">
-        <v>899</v>
+        <v>1006</v>
       </c>
       <c r="E235">
         <v>-1.2883408999999999</v>
@@ -10809,7 +10837,7 @@
         <v>283</v>
       </c>
       <c r="D236" t="s">
-        <v>900</v>
+        <v>1007</v>
       </c>
       <c r="E236">
         <v>-1.7274932999999999</v>
@@ -10835,7 +10863,7 @@
         <v>284</v>
       </c>
       <c r="D237" t="s">
-        <v>901</v>
+        <v>1008</v>
       </c>
       <c r="E237">
         <v>-0.90637420000000002</v>
@@ -10861,7 +10889,7 @@
         <v>285</v>
       </c>
       <c r="D238" t="s">
-        <v>902</v>
+        <v>1009</v>
       </c>
       <c r="E238">
         <v>-0.52564823999999999</v>
@@ -10887,7 +10915,7 @@
         <v>286</v>
       </c>
       <c r="D239" t="s">
-        <v>903</v>
+        <v>1010</v>
       </c>
       <c r="E239">
         <v>-0.60076759999999996</v>
@@ -10913,7 +10941,7 @@
         <v>287</v>
       </c>
       <c r="D240" t="s">
-        <v>904</v>
+        <v>1011</v>
       </c>
       <c r="E240">
         <v>-1.2089780000000001</v>
@@ -10939,7 +10967,7 @@
         <v>289</v>
       </c>
       <c r="D241" t="s">
-        <v>905</v>
+        <v>1012</v>
       </c>
       <c r="E241">
         <v>-0.17993875000000001</v>
@@ -10965,7 +10993,7 @@
         <v>291</v>
       </c>
       <c r="D242" t="s">
-        <v>906</v>
+        <v>1013</v>
       </c>
       <c r="E242">
         <v>-0.90902819999999995</v>
@@ -10991,7 +11019,7 @@
         <v>292</v>
       </c>
       <c r="D243" t="s">
-        <v>907</v>
+        <v>1014</v>
       </c>
       <c r="E243">
         <v>-1.4471102</v>
@@ -11017,7 +11045,7 @@
         <v>293</v>
       </c>
       <c r="D244" t="s">
-        <v>908</v>
+        <v>1015</v>
       </c>
       <c r="E244">
         <v>-1.879707</v>
@@ -11043,7 +11071,7 @@
         <v>294</v>
       </c>
       <c r="D245" t="s">
-        <v>909</v>
+        <v>1016</v>
       </c>
       <c r="E245">
         <v>-0.22778691000000001</v>
@@ -11069,7 +11097,7 @@
         <v>295</v>
       </c>
       <c r="D246" t="s">
-        <v>910</v>
+        <v>1017</v>
       </c>
       <c r="E246">
         <v>-0.92979430000000007</v>
@@ -11095,7 +11123,7 @@
         <v>296</v>
       </c>
       <c r="D247" t="s">
-        <v>911</v>
+        <v>1018</v>
       </c>
       <c r="E247">
         <v>-1.1839987000000001</v>
@@ -11121,7 +11149,7 @@
         <v>297</v>
       </c>
       <c r="D248" t="s">
-        <v>912</v>
+        <v>1019</v>
       </c>
       <c r="E248">
         <v>-0.67754230000000004</v>
@@ -11147,7 +11175,7 @@
         <v>299</v>
       </c>
       <c r="D249" t="s">
-        <v>913</v>
+        <v>1020</v>
       </c>
       <c r="E249">
         <v>-1.0346502</v>
@@ -11173,7 +11201,7 @@
         <v>300</v>
       </c>
       <c r="D250" t="s">
-        <v>914</v>
+        <v>1021</v>
       </c>
       <c r="E250">
         <v>-0.98022980000000004</v>
@@ -11199,7 +11227,7 @@
         <v>302</v>
       </c>
       <c r="D251" t="s">
-        <v>915</v>
+        <v>1022</v>
       </c>
       <c r="E251">
         <v>-1.4772034999999999</v>
@@ -11225,7 +11253,7 @@
         <v>304</v>
       </c>
       <c r="D252" t="s">
-        <v>916</v>
+        <v>304</v>
       </c>
       <c r="E252">
         <v>-0.97007286999999998</v>
@@ -11251,7 +11279,7 @@
         <v>305</v>
       </c>
       <c r="D253" t="s">
-        <v>917</v>
+        <v>1023</v>
       </c>
       <c r="E253">
         <v>-0.48088544999999999</v>
@@ -11277,7 +11305,7 @@
         <v>306</v>
       </c>
       <c r="D254" t="s">
-        <v>918</v>
+        <v>1024</v>
       </c>
       <c r="E254">
         <v>-0.23187716</v>
@@ -11303,7 +11331,7 @@
         <v>308</v>
       </c>
       <c r="D255" t="s">
-        <v>919</v>
+        <v>1025</v>
       </c>
       <c r="E255">
         <v>-0.12520882</v>
@@ -11329,7 +11357,7 @@
         <v>309</v>
       </c>
       <c r="D256" t="s">
-        <v>920</v>
+        <v>1026</v>
       </c>
       <c r="E256">
         <v>-0.3132781</v>
@@ -11355,7 +11383,7 @@
         <v>310</v>
       </c>
       <c r="D257" t="s">
-        <v>921</v>
+        <v>1027</v>
       </c>
       <c r="E257">
         <v>-1.2059221</v>
@@ -11381,7 +11409,7 @@
         <v>312</v>
       </c>
       <c r="D258" t="s">
-        <v>922</v>
+        <v>1028</v>
       </c>
       <c r="E258">
         <v>-1.6433264000000001</v>
@@ -11407,7 +11435,7 @@
         <v>314</v>
       </c>
       <c r="D259" t="s">
-        <v>923</v>
+        <v>1029</v>
       </c>
       <c r="E259">
         <v>-0.81914310000000001</v>
@@ -11433,7 +11461,7 @@
         <v>316</v>
       </c>
       <c r="D260" t="s">
-        <v>924</v>
+        <v>1030</v>
       </c>
       <c r="E260">
         <v>-0.77110064</v>
@@ -11459,7 +11487,7 @@
         <v>317</v>
       </c>
       <c r="D261" t="s">
-        <v>925</v>
+        <v>1031</v>
       </c>
       <c r="E261">
         <v>-0.67657330000000004</v>
@@ -11485,7 +11513,7 @@
         <v>318</v>
       </c>
       <c r="D262" t="s">
-        <v>926</v>
+        <v>1032</v>
       </c>
       <c r="E262">
         <v>-0.85216659999999989</v>
@@ -11511,7 +11539,7 @@
         <v>319</v>
       </c>
       <c r="D263" t="s">
-        <v>927</v>
+        <v>1033</v>
       </c>
       <c r="E263">
         <v>-0.62913799999999998</v>
@@ -11537,7 +11565,7 @@
         <v>320</v>
       </c>
       <c r="D264" t="s">
-        <v>928</v>
+        <v>1034</v>
       </c>
       <c r="E264">
         <v>-0.78651510000000002</v>
@@ -11563,7 +11591,7 @@
         <v>322</v>
       </c>
       <c r="D265" t="s">
-        <v>929</v>
+        <v>1035</v>
       </c>
       <c r="E265">
         <v>-0.12610637999999999</v>
@@ -11589,7 +11617,7 @@
         <v>324</v>
       </c>
       <c r="D266" t="s">
-        <v>930</v>
+        <v>1037</v>
       </c>
       <c r="E266">
         <v>-0.27110909999999999</v>
@@ -11615,7 +11643,7 @@
         <v>325</v>
       </c>
       <c r="D267" t="s">
-        <v>931</v>
+        <v>1036</v>
       </c>
       <c r="E267">
         <v>-1.9621351</v>
@@ -11641,7 +11669,7 @@
         <v>326</v>
       </c>
       <c r="D268" t="s">
-        <v>932</v>
+        <v>1038</v>
       </c>
       <c r="E268">
         <v>-0.12655427999999999</v>
@@ -11667,7 +11695,7 @@
         <v>327</v>
       </c>
       <c r="D269" t="s">
-        <v>933</v>
+        <v>1039</v>
       </c>
       <c r="E269">
         <v>-0.32291418</v>
@@ -11693,7 +11721,7 @@
         <v>328</v>
       </c>
       <c r="D270" t="s">
-        <v>934</v>
+        <v>1040</v>
       </c>
       <c r="E270">
         <v>-0.61859019999999987</v>
@@ -11719,7 +11747,7 @@
         <v>329</v>
       </c>
       <c r="D271" t="s">
-        <v>935</v>
+        <v>1041</v>
       </c>
       <c r="E271">
         <v>-0.11440137</v>
@@ -11745,7 +11773,7 @@
         <v>331</v>
       </c>
       <c r="D272" t="s">
-        <v>936</v>
+        <v>1042</v>
       </c>
       <c r="E272">
         <v>-0.94845449999999998</v>
@@ -11771,7 +11799,7 @@
         <v>332</v>
       </c>
       <c r="D273" t="s">
-        <v>937</v>
+        <v>1043</v>
       </c>
       <c r="E273">
         <v>-0.97820010000000002</v>
@@ -11797,7 +11825,7 @@
         <v>333</v>
       </c>
       <c r="D274" t="s">
-        <v>938</v>
+        <v>1044</v>
       </c>
       <c r="E274">
         <v>-1.4423169</v>
@@ -11823,7 +11851,7 @@
         <v>334</v>
       </c>
       <c r="D275" t="s">
-        <v>939</v>
+        <v>1045</v>
       </c>
       <c r="E275">
         <v>3.1813182000000002E-2</v>
@@ -11849,7 +11877,7 @@
         <v>335</v>
       </c>
       <c r="D276" t="s">
-        <v>940</v>
+        <v>1046</v>
       </c>
       <c r="E276">
         <v>-0.25110519999999997</v>
@@ -11875,7 +11903,7 @@
         <v>336</v>
       </c>
       <c r="D277" t="s">
-        <v>941</v>
+        <v>1047</v>
       </c>
       <c r="E277">
         <v>-0.59774899999999997</v>
@@ -11901,7 +11929,7 @@
         <v>337</v>
       </c>
       <c r="D278" t="s">
-        <v>942</v>
+        <v>1048</v>
       </c>
       <c r="E278">
         <v>-0.43171876999999997</v>
@@ -11927,7 +11955,7 @@
         <v>338</v>
       </c>
       <c r="D279" t="s">
-        <v>943</v>
+        <v>1049</v>
       </c>
       <c r="E279">
         <v>-1.1994673</v>
@@ -11953,7 +11981,7 @@
         <v>340</v>
       </c>
       <c r="D280" t="s">
-        <v>944</v>
+        <v>1050</v>
       </c>
       <c r="E280">
         <v>-1.0284176</v>
@@ -11979,7 +12007,7 @@
         <v>342</v>
       </c>
       <c r="D281" t="s">
-        <v>945</v>
+        <v>1051</v>
       </c>
       <c r="E281">
         <v>-0.46313145999999999</v>
@@ -12005,7 +12033,7 @@
         <v>343</v>
       </c>
       <c r="D282" t="s">
-        <v>946</v>
+        <v>1052</v>
       </c>
       <c r="E282">
         <v>-0.48041302000000002</v>
@@ -12031,7 +12059,7 @@
         <v>344</v>
       </c>
       <c r="D283" t="s">
-        <v>947</v>
+        <v>1053</v>
       </c>
       <c r="E283">
         <v>-0.60747119999999999</v>
@@ -12057,7 +12085,7 @@
         <v>345</v>
       </c>
       <c r="D284" t="s">
-        <v>948</v>
+        <v>1054</v>
       </c>
       <c r="E284">
         <v>-0.93415659999999989</v>
@@ -12083,7 +12111,7 @@
         <v>346</v>
       </c>
       <c r="D285" t="s">
-        <v>949</v>
+        <v>1055</v>
       </c>
       <c r="E285">
         <v>-0.40166859999999999</v>
@@ -12109,7 +12137,7 @@
         <v>348</v>
       </c>
       <c r="D286" t="s">
-        <v>950</v>
+        <v>1056</v>
       </c>
       <c r="E286">
         <v>-0.20757511000000001</v>
@@ -12135,7 +12163,7 @@
         <v>350</v>
       </c>
       <c r="D287" t="s">
-        <v>951</v>
+        <v>1057</v>
       </c>
       <c r="E287">
         <v>-1.6105540000000002E-2</v>
@@ -12161,7 +12189,7 @@
         <v>351</v>
       </c>
       <c r="D288" t="s">
-        <v>952</v>
+        <v>1058</v>
       </c>
       <c r="E288">
         <v>-0.55498740000000002</v>
@@ -12187,7 +12215,7 @@
         <v>352</v>
       </c>
       <c r="D289" t="s">
-        <v>953</v>
+        <v>1059</v>
       </c>
       <c r="E289">
         <v>-0.1337322</v>
@@ -12213,7 +12241,7 @@
         <v>353</v>
       </c>
       <c r="D290" t="s">
-        <v>954</v>
+        <v>1060</v>
       </c>
       <c r="E290">
         <v>-0.14867232999999999</v>
@@ -12239,7 +12267,7 @@
         <v>354</v>
       </c>
       <c r="D291" t="s">
-        <v>955</v>
+        <v>1061</v>
       </c>
       <c r="E291">
         <v>-1.2082626999999999</v>
@@ -12265,7 +12293,7 @@
         <v>356</v>
       </c>
       <c r="D292" t="s">
-        <v>956</v>
+        <v>1062</v>
       </c>
       <c r="E292">
         <v>-0.27989649999999999</v>
@@ -12291,7 +12319,7 @@
         <v>358</v>
       </c>
       <c r="D293" t="s">
-        <v>957</v>
+        <v>1063</v>
       </c>
       <c r="E293">
         <v>-0.51070726</v>
@@ -12317,7 +12345,7 @@
         <v>359</v>
       </c>
       <c r="D294" t="s">
-        <v>958</v>
+        <v>1064</v>
       </c>
       <c r="E294">
         <v>-1.7268131</v>
@@ -12343,7 +12371,7 @@
         <v>360</v>
       </c>
       <c r="D295" t="s">
-        <v>959</v>
+        <v>1065</v>
       </c>
       <c r="E295">
         <v>-1.3375561</v>
@@ -12369,7 +12397,7 @@
         <v>361</v>
       </c>
       <c r="D296" t="s">
-        <v>960</v>
+        <v>1066</v>
       </c>
       <c r="E296">
         <v>-0.88761749999999995</v>
@@ -12395,7 +12423,7 @@
         <v>362</v>
       </c>
       <c r="D297" t="s">
-        <v>961</v>
+        <v>1067</v>
       </c>
       <c r="E297">
         <v>-1.5697228999999999</v>
@@ -12421,7 +12449,7 @@
         <v>363</v>
       </c>
       <c r="D298" t="s">
-        <v>962</v>
+        <v>1068</v>
       </c>
       <c r="E298">
         <v>-1.1307533999999999</v>
@@ -12447,7 +12475,7 @@
         <v>365</v>
       </c>
       <c r="D299" t="s">
-        <v>963</v>
+        <v>1069</v>
       </c>
       <c r="E299">
         <v>-0.46183102999999998</v>
@@ -12473,7 +12501,7 @@
         <v>366</v>
       </c>
       <c r="D300" t="s">
-        <v>964</v>
+        <v>1070</v>
       </c>
       <c r="E300">
         <v>-0.53052100000000002</v>
@@ -12499,7 +12527,7 @@
         <v>367</v>
       </c>
       <c r="D301" t="s">
-        <v>965</v>
+        <v>367</v>
       </c>
       <c r="E301">
         <v>-0.84727633000000002</v>
@@ -12525,7 +12553,7 @@
         <v>369</v>
       </c>
       <c r="D302" t="s">
-        <v>966</v>
+        <v>1071</v>
       </c>
       <c r="E302">
         <v>-0.21253368</v>
@@ -12551,7 +12579,7 @@
         <v>370</v>
       </c>
       <c r="D303" t="s">
-        <v>967</v>
+        <v>1072</v>
       </c>
       <c r="E303">
         <v>-1.2990390000000001</v>
@@ -12577,7 +12605,7 @@
         <v>372</v>
       </c>
       <c r="D304" t="s">
-        <v>968</v>
+        <v>1073</v>
       </c>
       <c r="E304">
         <v>-0.15078901</v>
@@ -12603,7 +12631,7 @@
         <v>373</v>
       </c>
       <c r="D305" t="s">
-        <v>969</v>
+        <v>1074</v>
       </c>
       <c r="E305">
         <v>-1.6223919</v>
@@ -12629,7 +12657,7 @@
         <v>374</v>
       </c>
       <c r="D306" t="s">
-        <v>970</v>
+        <v>1075</v>
       </c>
       <c r="E306">
         <v>-1.9953103999999999</v>
@@ -12655,7 +12683,7 @@
         <v>375</v>
       </c>
       <c r="D307" t="s">
-        <v>971</v>
+        <v>1076</v>
       </c>
       <c r="E307">
         <v>-1.6727209000000001</v>
@@ -12681,7 +12709,7 @@
         <v>376</v>
       </c>
       <c r="D308" t="s">
-        <v>972</v>
+        <v>1077</v>
       </c>
       <c r="E308">
         <v>-1.0834942000000001</v>
@@ -12707,7 +12735,7 @@
         <v>378</v>
       </c>
       <c r="D309" t="s">
-        <v>973</v>
+        <v>1078</v>
       </c>
       <c r="E309">
         <v>-0.94987500000000002</v>
@@ -12733,7 +12761,7 @@
         <v>379</v>
       </c>
       <c r="D310" t="s">
-        <v>974</v>
+        <v>1079</v>
       </c>
       <c r="E310">
         <v>-0.72488724999999998</v>
@@ -12759,7 +12787,7 @@
         <v>380</v>
       </c>
       <c r="D311" t="s">
-        <v>975</v>
+        <v>1080</v>
       </c>
       <c r="E311">
         <v>-0.86323315</v>
@@ -12785,7 +12813,7 @@
         <v>381</v>
       </c>
       <c r="D312" t="s">
-        <v>976</v>
+        <v>1081</v>
       </c>
       <c r="E312">
         <v>-0.65799843999999996</v>
@@ -12811,7 +12839,7 @@
         <v>383</v>
       </c>
       <c r="D313" t="s">
-        <v>977</v>
+        <v>1082</v>
       </c>
       <c r="E313">
         <v>-1.7547044000000001</v>
@@ -12837,7 +12865,7 @@
         <v>384</v>
       </c>
       <c r="D314" t="s">
-        <v>978</v>
+        <v>1083</v>
       </c>
       <c r="E314">
         <v>-1.3457029</v>
@@ -12863,7 +12891,7 @@
         <v>385</v>
       </c>
       <c r="D315" t="s">
-        <v>979</v>
+        <v>1084</v>
       </c>
       <c r="E315">
         <v>-1.5772126</v>
@@ -12889,7 +12917,7 @@
         <v>387</v>
       </c>
       <c r="D316" t="s">
-        <v>980</v>
+        <v>1085</v>
       </c>
       <c r="E316">
         <v>-0.78667355000000005</v>
@@ -12915,7 +12943,7 @@
         <v>388</v>
       </c>
       <c r="D317" t="s">
-        <v>981</v>
+        <v>1086</v>
       </c>
       <c r="E317">
         <v>3.2168670000000003E-2</v>
@@ -12941,7 +12969,7 @@
         <v>389</v>
       </c>
       <c r="D318" t="s">
-        <v>982</v>
+        <v>1087</v>
       </c>
       <c r="E318">
         <v>-1.0548522</v>
@@ -12967,7 +12995,7 @@
         <v>390</v>
       </c>
       <c r="D319" t="s">
-        <v>983</v>
+        <v>1088</v>
       </c>
       <c r="E319">
         <v>-0.45338141999999998</v>
@@ -12993,7 +13021,7 @@
         <v>392</v>
       </c>
       <c r="D320" t="s">
-        <v>984</v>
+        <v>1089</v>
       </c>
       <c r="E320">
         <v>-1.5911938999999999</v>
@@ -13019,7 +13047,7 @@
         <v>394</v>
       </c>
       <c r="D321" t="s">
-        <v>985</v>
+        <v>1090</v>
       </c>
       <c r="E321">
         <v>-0.28907680000000002</v>
@@ -13045,7 +13073,7 @@
         <v>395</v>
       </c>
       <c r="D322" t="s">
-        <v>986</v>
+        <v>1091</v>
       </c>
       <c r="E322">
         <v>-0.58089745000000004</v>
@@ -13071,7 +13099,7 @@
         <v>397</v>
       </c>
       <c r="D323" t="s">
-        <v>987</v>
+        <v>1092</v>
       </c>
       <c r="E323">
         <v>-1.0821940999999999</v>
@@ -13097,7 +13125,7 @@
         <v>398</v>
       </c>
       <c r="D324" t="s">
-        <v>988</v>
+        <v>1093</v>
       </c>
       <c r="E324">
         <v>-1.4634750999999999</v>
@@ -13123,7 +13151,7 @@
         <v>399</v>
       </c>
       <c r="D325" t="s">
-        <v>989</v>
+        <v>1094</v>
       </c>
       <c r="E325">
         <v>-1.7514825999999999</v>
@@ -13149,7 +13177,7 @@
         <v>400</v>
       </c>
       <c r="D326" t="s">
-        <v>990</v>
+        <v>1095</v>
       </c>
       <c r="E326">
         <v>-0.17096876999999999</v>
@@ -13175,7 +13203,7 @@
         <v>401</v>
       </c>
       <c r="D327" t="s">
-        <v>991</v>
+        <v>1096</v>
       </c>
       <c r="E327">
         <v>-1.9243908000000001</v>
@@ -13201,7 +13229,7 @@
         <v>402</v>
       </c>
       <c r="D328" t="s">
-        <v>992</v>
+        <v>1097</v>
       </c>
       <c r="E328">
         <v>-0.83190304000000004</v>
@@ -13227,7 +13255,7 @@
         <v>404</v>
       </c>
       <c r="D329" t="s">
-        <v>993</v>
+        <v>1098</v>
       </c>
       <c r="E329">
         <v>-0.71013619999999988</v>
@@ -13253,7 +13281,7 @@
         <v>405</v>
       </c>
       <c r="D330" t="s">
-        <v>994</v>
+        <v>1099</v>
       </c>
       <c r="E330">
         <v>-0.69489330000000005</v>
@@ -13279,7 +13307,7 @@
         <v>406</v>
       </c>
       <c r="D331" t="s">
-        <v>995</v>
+        <v>1100</v>
       </c>
       <c r="E331">
         <v>-1.0322574</v>
@@ -13305,7 +13333,7 @@
         <v>407</v>
       </c>
       <c r="D332" t="s">
-        <v>996</v>
+        <v>1101</v>
       </c>
       <c r="E332">
         <v>-1.9873844000000001</v>
@@ -13331,7 +13359,7 @@
         <v>408</v>
       </c>
       <c r="D333" t="s">
-        <v>997</v>
+        <v>1102</v>
       </c>
       <c r="E333">
         <v>-1.286808</v>
@@ -13357,7 +13385,7 @@
         <v>409</v>
       </c>
       <c r="D334" t="s">
-        <v>998</v>
+        <v>409</v>
       </c>
       <c r="E334">
         <v>-1.4001665000000001</v>
@@ -13383,7 +13411,7 @@
         <v>410</v>
       </c>
       <c r="D335" t="s">
-        <v>999</v>
+        <v>1103</v>
       </c>
       <c r="E335">
         <v>-1.795364</v>
@@ -13409,7 +13437,7 @@
         <v>412</v>
       </c>
       <c r="D336" t="s">
-        <v>1000</v>
+        <v>1104</v>
       </c>
       <c r="E336">
         <v>6.6444054000000001E-3</v>
@@ -13435,7 +13463,7 @@
         <v>413</v>
       </c>
       <c r="D337" t="s">
-        <v>1001</v>
+        <v>1105</v>
       </c>
       <c r="E337">
         <v>-0.59668359999999998</v>
@@ -13461,7 +13489,7 @@
         <v>414</v>
       </c>
       <c r="D338" t="s">
-        <v>1002</v>
+        <v>1106</v>
       </c>
       <c r="E338">
         <v>-0.57409319999999997</v>
@@ -13487,7 +13515,7 @@
         <v>415</v>
       </c>
       <c r="D339" t="s">
-        <v>1003</v>
+        <v>1107</v>
       </c>
       <c r="E339">
         <v>-0.26757333</v>
@@ -13513,7 +13541,7 @@
         <v>416</v>
       </c>
       <c r="D340" t="s">
-        <v>1004</v>
+        <v>1108</v>
       </c>
       <c r="E340">
         <v>-9.771473E-2</v>
@@ -13539,7 +13567,7 @@
         <v>417</v>
       </c>
       <c r="D341" t="s">
-        <v>1005</v>
+        <v>1109</v>
       </c>
       <c r="E341">
         <v>-0.52333160000000001</v>
@@ -13565,7 +13593,7 @@
         <v>291</v>
       </c>
       <c r="D342" t="s">
-        <v>906</v>
+        <v>1110</v>
       </c>
       <c r="E342">
         <v>-0.18834466</v>
@@ -13591,7 +13619,7 @@
         <v>292</v>
       </c>
       <c r="D343" t="s">
-        <v>907</v>
+        <v>1111</v>
       </c>
       <c r="E343">
         <v>-1.4928193000000001</v>
@@ -13617,7 +13645,7 @@
         <v>293</v>
       </c>
       <c r="D344" t="s">
-        <v>908</v>
+        <v>1112</v>
       </c>
       <c r="E344">
         <v>-0.3071835</v>
@@ -13643,7 +13671,7 @@
         <v>420</v>
       </c>
       <c r="D345" t="s">
-        <v>1006</v>
+        <v>1113</v>
       </c>
       <c r="E345">
         <v>-0.50898825999999997</v>
@@ -13669,7 +13697,7 @@
         <v>422</v>
       </c>
       <c r="D346" t="s">
-        <v>1007</v>
+        <v>422</v>
       </c>
       <c r="E346">
         <v>-0.49517703000000002</v>
@@ -13695,7 +13723,7 @@
         <v>424</v>
       </c>
       <c r="D347" t="s">
-        <v>1008</v>
+        <v>1114</v>
       </c>
       <c r="E347">
         <v>-1.7781952999999999</v>
@@ -13721,7 +13749,7 @@
         <v>426</v>
       </c>
       <c r="D348" t="s">
-        <v>1009</v>
+        <v>426</v>
       </c>
       <c r="E348">
         <v>-1.8853503</v>
@@ -13747,7 +13775,7 @@
         <v>427</v>
       </c>
       <c r="D349" t="s">
-        <v>1010</v>
+        <v>1115</v>
       </c>
       <c r="E349">
         <v>-1.9231931</v>
@@ -13773,7 +13801,7 @@
         <v>428</v>
       </c>
       <c r="D350" t="s">
-        <v>1011</v>
+        <v>1116</v>
       </c>
       <c r="E350">
         <v>-1.8532021000000001</v>
@@ -13799,7 +13827,7 @@
         <v>429</v>
       </c>
       <c r="D351" t="s">
-        <v>1012</v>
+        <v>1117</v>
       </c>
       <c r="E351">
         <v>-0.55893356000000005</v>
@@ -13825,7 +13853,7 @@
         <v>430</v>
       </c>
       <c r="D352" t="s">
-        <v>1013</v>
+        <v>1118</v>
       </c>
       <c r="E352">
         <v>-1.9492531</v>
@@ -13851,7 +13879,7 @@
         <v>432</v>
       </c>
       <c r="D353" t="s">
-        <v>1014</v>
+        <v>1119</v>
       </c>
       <c r="E353">
         <v>-1.0250287</v>
@@ -13877,7 +13905,7 @@
         <v>433</v>
       </c>
       <c r="D354" t="s">
-        <v>1015</v>
+        <v>1120</v>
       </c>
       <c r="E354">
         <v>-1.7783047000000001</v>
@@ -13903,7 +13931,7 @@
         <v>434</v>
       </c>
       <c r="D355" t="s">
-        <v>1016</v>
+        <v>1121</v>
       </c>
       <c r="E355">
         <v>-1.6747624999999999</v>
@@ -13929,7 +13957,7 @@
         <v>435</v>
       </c>
       <c r="D356" t="s">
-        <v>1017</v>
+        <v>1122</v>
       </c>
       <c r="E356">
         <v>-0.117187954</v>
@@ -13955,7 +13983,7 @@
         <v>436</v>
       </c>
       <c r="D357" t="s">
-        <v>1018</v>
+        <v>1123</v>
       </c>
       <c r="E357">
         <v>-9.5699619999999999E-2</v>
@@ -13981,7 +14009,7 @@
         <v>437</v>
       </c>
       <c r="D358" t="s">
-        <v>1019</v>
+        <v>1124</v>
       </c>
       <c r="E358">
         <v>-0.60057706</v>
@@ -14007,7 +14035,7 @@
         <v>439</v>
       </c>
       <c r="D359" t="s">
-        <v>1020</v>
+        <v>1125</v>
       </c>
       <c r="E359">
         <v>-1.3053906</v>
@@ -14033,7 +14061,7 @@
         <v>440</v>
       </c>
       <c r="D360" t="s">
-        <v>1021</v>
+        <v>1126</v>
       </c>
       <c r="E360">
         <v>-1.3128215000000001</v>
@@ -14059,7 +14087,7 @@
         <v>441</v>
       </c>
       <c r="D361" t="s">
-        <v>1022</v>
+        <v>1127</v>
       </c>
       <c r="E361">
         <v>-1.2389349000000001</v>
@@ -14085,7 +14113,7 @@
         <v>442</v>
       </c>
       <c r="D362" t="s">
-        <v>1023</v>
+        <v>1128</v>
       </c>
       <c r="E362">
         <v>-0.68647630000000004</v>
@@ -14111,7 +14139,7 @@
         <v>443</v>
       </c>
       <c r="D363" t="s">
-        <v>1024</v>
+        <v>1129</v>
       </c>
       <c r="E363">
         <v>-0.1014029</v>
@@ -14137,7 +14165,7 @@
         <v>444</v>
       </c>
       <c r="D364" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E364">
         <v>-0.10224229</v>
@@ -14163,7 +14191,7 @@
         <v>445</v>
       </c>
       <c r="D365" t="s">
-        <v>1026</v>
+        <v>1131</v>
       </c>
       <c r="E365">
         <v>-0.44773358000000002</v>
@@ -14189,7 +14217,7 @@
         <v>446</v>
       </c>
       <c r="D366" t="s">
-        <v>1027</v>
+        <v>1132</v>
       </c>
       <c r="E366">
         <v>-0.86730529999999995</v>
@@ -14215,7 +14243,7 @@
         <v>447</v>
       </c>
       <c r="D367" t="s">
-        <v>1028</v>
+        <v>1133</v>
       </c>
       <c r="E367">
         <v>-1.1318444000000001</v>
@@ -14241,7 +14269,7 @@
         <v>448</v>
       </c>
       <c r="D368" t="s">
-        <v>1029</v>
+        <v>1134</v>
       </c>
       <c r="E368">
         <v>-0.21701910999999999</v>
@@ -14267,7 +14295,7 @@
         <v>449</v>
       </c>
       <c r="D369" t="s">
-        <v>1030</v>
+        <v>1135</v>
       </c>
       <c r="E369">
         <v>-1.1527706</v>
@@ -14293,7 +14321,7 @@
         <v>451</v>
       </c>
       <c r="D370" t="s">
-        <v>1031</v>
+        <v>1136</v>
       </c>
       <c r="E370">
         <v>-1.2766603999999999</v>
@@ -14319,7 +14347,7 @@
         <v>452</v>
       </c>
       <c r="D371" t="s">
-        <v>1032</v>
+        <v>1137</v>
       </c>
       <c r="E371">
         <v>-1.9864204999999999</v>
@@ -14345,7 +14373,7 @@
         <v>454</v>
       </c>
       <c r="D372" t="s">
-        <v>1033</v>
+        <v>1138</v>
       </c>
       <c r="E372">
         <v>-0.27320319999999998</v>
@@ -14371,7 +14399,7 @@
         <v>455</v>
       </c>
       <c r="D373" t="s">
-        <v>1034</v>
+        <v>1139</v>
       </c>
       <c r="E373">
         <v>-1.0077893</v>
@@ -14397,7 +14425,7 @@
         <v>456</v>
       </c>
       <c r="D374" t="s">
-        <v>1035</v>
+        <v>1140</v>
       </c>
       <c r="E374">
         <v>-1.8376082</v>
@@ -14423,7 +14451,7 @@
         <v>457</v>
       </c>
       <c r="D375" t="s">
-        <v>1036</v>
+        <v>1141</v>
       </c>
       <c r="E375">
         <v>-0.47704384</v>
@@ -14449,7 +14477,7 @@
         <v>458</v>
       </c>
       <c r="D376" t="s">
-        <v>1037</v>
+        <v>1142</v>
       </c>
       <c r="E376">
         <v>-1.2163501999999999</v>
@@ -14475,7 +14503,7 @@
         <v>460</v>
       </c>
       <c r="D377" t="s">
-        <v>1038</v>
+        <v>1143</v>
       </c>
       <c r="E377">
         <v>-0.57396389999999997</v>
@@ -14501,7 +14529,7 @@
         <v>462</v>
       </c>
       <c r="D378" t="s">
-        <v>1039</v>
+        <v>1144</v>
       </c>
       <c r="E378">
         <v>-0.29386099999999998</v>
@@ -14527,7 +14555,7 @@
         <v>463</v>
       </c>
       <c r="D379" t="s">
-        <v>1040</v>
+        <v>1145</v>
       </c>
       <c r="E379">
         <v>-0.97315879999999999</v>
@@ -14553,7 +14581,7 @@
         <v>465</v>
       </c>
       <c r="D380" t="s">
-        <v>1041</v>
+        <v>1146</v>
       </c>
       <c r="E380">
         <v>-0.35552633</v>
@@ -14579,7 +14607,7 @@
         <v>467</v>
       </c>
       <c r="D381" t="s">
-        <v>1042</v>
+        <v>1147</v>
       </c>
       <c r="E381">
         <v>-0.27310634</v>
@@ -14605,7 +14633,7 @@
         <v>468</v>
       </c>
       <c r="D382" t="s">
-        <v>1043</v>
+        <v>1148</v>
       </c>
       <c r="E382">
         <v>-0.32732676999999999</v>
@@ -14631,7 +14659,7 @@
         <v>469</v>
       </c>
       <c r="D383" t="s">
-        <v>1044</v>
+        <v>1149</v>
       </c>
       <c r="E383">
         <v>-0.1657438</v>
@@ -14657,7 +14685,7 @@
         <v>470</v>
       </c>
       <c r="D384" t="s">
-        <v>1045</v>
+        <v>1150</v>
       </c>
       <c r="E384">
         <v>-0.58081685999999999</v>
@@ -14683,7 +14711,7 @@
         <v>471</v>
       </c>
       <c r="D385" t="s">
-        <v>1046</v>
+        <v>1151</v>
       </c>
       <c r="E385">
         <v>-0.42946398000000002</v>
@@ -14709,7 +14737,7 @@
         <v>473</v>
       </c>
       <c r="D386" t="s">
-        <v>1047</v>
+        <v>1152</v>
       </c>
       <c r="E386">
         <v>-1.1192230999999999</v>
@@ -14735,7 +14763,7 @@
         <v>475</v>
       </c>
       <c r="D387" t="s">
-        <v>1048</v>
+        <v>1153</v>
       </c>
       <c r="E387">
         <v>-0.48227203000000002</v>
@@ -14761,7 +14789,7 @@
         <v>476</v>
       </c>
       <c r="D388" t="s">
-        <v>1049</v>
+        <v>1154</v>
       </c>
       <c r="E388">
         <v>-0.59956530000000008</v>
@@ -14787,7 +14815,7 @@
         <v>477</v>
       </c>
       <c r="D389" t="s">
-        <v>1050</v>
+        <v>1155</v>
       </c>
       <c r="E389">
         <v>-1.0827194</v>
@@ -14813,7 +14841,7 @@
         <v>478</v>
       </c>
       <c r="D390" t="s">
-        <v>1051</v>
+        <v>1156</v>
       </c>
       <c r="E390">
         <v>-0.78192720000000004</v>
@@ -14839,7 +14867,7 @@
         <v>480</v>
       </c>
       <c r="D391" t="s">
-        <v>1052</v>
+        <v>1157</v>
       </c>
       <c r="E391">
         <v>-0.29978663</v>
@@ -14865,7 +14893,7 @@
         <v>481</v>
       </c>
       <c r="D392" t="s">
-        <v>1053</v>
+        <v>1158</v>
       </c>
       <c r="E392">
         <v>-0.21377294999999999</v>
@@ -14891,7 +14919,7 @@
         <v>483</v>
       </c>
       <c r="D393" t="s">
-        <v>1054</v>
+        <v>1159</v>
       </c>
       <c r="E393">
         <v>-1.9216297</v>
@@ -14917,7 +14945,7 @@
         <v>484</v>
       </c>
       <c r="D394" t="s">
-        <v>1055</v>
+        <v>1160</v>
       </c>
       <c r="E394">
         <v>-2.0375329999999998</v>
@@ -14943,7 +14971,7 @@
         <v>485</v>
       </c>
       <c r="D395" t="s">
-        <v>1056</v>
+        <v>1161</v>
       </c>
       <c r="E395">
         <v>-1.7261375999999999</v>
@@ -14969,7 +14997,7 @@
         <v>486</v>
       </c>
       <c r="D396" t="s">
-        <v>1057</v>
+        <v>1162</v>
       </c>
       <c r="E396">
         <v>-0.3734268</v>
@@ -14995,7 +15023,7 @@
         <v>487</v>
       </c>
       <c r="D397" t="s">
-        <v>1058</v>
+        <v>1163</v>
       </c>
       <c r="E397">
         <v>-0.5980409000000001</v>
@@ -15021,7 +15049,7 @@
         <v>488</v>
       </c>
       <c r="D398" t="s">
-        <v>1059</v>
+        <v>1164</v>
       </c>
       <c r="E398">
         <v>-1.9834324999999999</v>
@@ -15047,7 +15075,7 @@
         <v>490</v>
       </c>
       <c r="D399" t="s">
-        <v>1060</v>
+        <v>1165</v>
       </c>
       <c r="E399">
         <v>-0.36351075999999999</v>
@@ -15073,7 +15101,7 @@
         <v>492</v>
       </c>
       <c r="D400" t="s">
-        <v>1061</v>
+        <v>1166</v>
       </c>
       <c r="E400">
         <v>-0.46167580000000003</v>
@@ -15099,7 +15127,7 @@
         <v>494</v>
       </c>
       <c r="D401" t="s">
-        <v>1062</v>
+        <v>1167</v>
       </c>
       <c r="E401">
         <v>-0.82101064999999995</v>
@@ -15125,7 +15153,7 @@
         <v>495</v>
       </c>
       <c r="D402" t="s">
-        <v>1063</v>
+        <v>1168</v>
       </c>
       <c r="E402">
         <v>-0.15926035999999999</v>
@@ -15151,7 +15179,7 @@
         <v>496</v>
       </c>
       <c r="D403" t="s">
-        <v>1064</v>
+        <v>1169</v>
       </c>
       <c r="E403">
         <v>8.9608884999999999E-2</v>
@@ -15177,7 +15205,7 @@
         <v>497</v>
       </c>
       <c r="D404" t="s">
-        <v>1065</v>
+        <v>1170</v>
       </c>
       <c r="E404">
         <v>-0.27592790000000011</v>
@@ -15203,7 +15231,7 @@
         <v>498</v>
       </c>
       <c r="D405" t="s">
-        <v>1066</v>
+        <v>1171</v>
       </c>
       <c r="E405">
         <v>0.14531611999999999</v>
@@ -15229,7 +15257,7 @@
         <v>499</v>
       </c>
       <c r="D406" t="s">
-        <v>1067</v>
+        <v>1172</v>
       </c>
       <c r="E406">
         <v>-0.80051433999999999</v>
@@ -15255,7 +15283,7 @@
         <v>500</v>
       </c>
       <c r="D407" t="s">
-        <v>1068</v>
+        <v>1173</v>
       </c>
       <c r="E407">
         <v>-0.52550304000000003</v>
@@ -15281,7 +15309,7 @@
         <v>501</v>
       </c>
       <c r="D408" t="s">
-        <v>1069</v>
+        <v>1174</v>
       </c>
       <c r="E408">
         <v>-0.51118755000000005</v>
@@ -15307,7 +15335,7 @@
         <v>502</v>
       </c>
       <c r="D409" t="s">
-        <v>1070</v>
+        <v>1175</v>
       </c>
       <c r="E409">
         <v>-0.66346466999999998</v>
@@ -15333,7 +15361,7 @@
         <v>503</v>
       </c>
       <c r="D410" t="s">
-        <v>1071</v>
+        <v>1176</v>
       </c>
       <c r="E410">
         <v>-0.24757325999999999</v>
@@ -15359,7 +15387,7 @@
         <v>504</v>
       </c>
       <c r="D411" t="s">
-        <v>1072</v>
+        <v>1177</v>
       </c>
       <c r="E411">
         <v>-0.5230170999999999</v>
@@ -15385,7 +15413,7 @@
         <v>505</v>
       </c>
       <c r="D412" t="s">
-        <v>1073</v>
+        <v>1178</v>
       </c>
       <c r="E412">
         <v>-0.72422825999999996</v>
@@ -15411,7 +15439,7 @@
         <v>506</v>
       </c>
       <c r="D413" t="s">
-        <v>1074</v>
+        <v>1179</v>
       </c>
       <c r="E413">
         <v>-0.64191750000000003</v>
@@ -15437,7 +15465,7 @@
         <v>507</v>
       </c>
       <c r="D414" t="s">
-        <v>1075</v>
+        <v>1180</v>
       </c>
       <c r="E414">
         <v>-0.61562040000000007</v>
@@ -15463,7 +15491,7 @@
         <v>509</v>
       </c>
       <c r="D415" t="s">
-        <v>1076</v>
+        <v>1181</v>
       </c>
       <c r="E415">
         <v>-0.74869317000000002</v>
@@ -15489,7 +15517,7 @@
         <v>510</v>
       </c>
       <c r="D416" t="s">
-        <v>1077</v>
+        <v>1182</v>
       </c>
       <c r="E416">
         <v>-1.0972227999999999</v>
@@ -15515,7 +15543,7 @@
         <v>511</v>
       </c>
       <c r="D417" t="s">
-        <v>1078</v>
+        <v>1183</v>
       </c>
       <c r="E417">
         <v>-0.32619134</v>
@@ -15541,7 +15569,7 @@
         <v>512</v>
       </c>
       <c r="D418" t="s">
-        <v>1079</v>
+        <v>1184</v>
       </c>
       <c r="E418">
         <v>-0.96910330000000011</v>
@@ -15567,7 +15595,7 @@
         <v>514</v>
       </c>
       <c r="D419" t="s">
-        <v>1080</v>
+        <v>1185</v>
       </c>
       <c r="E419">
         <v>-0.88755715000000002</v>
@@ -15593,7 +15621,7 @@
         <v>515</v>
       </c>
       <c r="D420" t="s">
-        <v>1081</v>
+        <v>515</v>
       </c>
       <c r="E420">
         <v>-0.39842242</v>
@@ -15619,7 +15647,7 @@
         <v>516</v>
       </c>
       <c r="D421" t="s">
-        <v>1082</v>
+        <v>1186</v>
       </c>
       <c r="E421">
         <v>-1.9599652000000001</v>
@@ -15645,7 +15673,7 @@
         <v>517</v>
       </c>
       <c r="D422" t="s">
-        <v>1083</v>
+        <v>1187</v>
       </c>
       <c r="E422">
         <v>-0.68915736999999999</v>
@@ -15671,7 +15699,7 @@
         <v>518</v>
       </c>
       <c r="D423" t="s">
-        <v>1084</v>
+        <v>1188</v>
       </c>
       <c r="E423">
         <v>-0.36464353999999999</v>
@@ -15697,7 +15725,7 @@
         <v>520</v>
       </c>
       <c r="D424" t="s">
-        <v>1085</v>
+        <v>1189</v>
       </c>
       <c r="E424">
         <v>-0.55812322999999997</v>
@@ -15723,7 +15751,7 @@
         <v>521</v>
       </c>
       <c r="D425" t="s">
-        <v>1086</v>
+        <v>1190</v>
       </c>
       <c r="E425">
         <v>-1.9323009</v>
@@ -15749,7 +15777,7 @@
         <v>523</v>
       </c>
       <c r="D426" t="s">
-        <v>1087</v>
+        <v>1191</v>
       </c>
       <c r="E426">
         <v>-0.9730681000000001</v>
@@ -15775,7 +15803,7 @@
         <v>524</v>
       </c>
       <c r="D427" t="s">
-        <v>1088</v>
+        <v>1192</v>
       </c>
       <c r="E427">
         <v>-1.0137026</v>
@@ -15801,7 +15829,7 @@
         <v>525</v>
       </c>
       <c r="D428" t="s">
-        <v>1089</v>
+        <v>1193</v>
       </c>
       <c r="E428">
         <v>-1.9469240999999999</v>
@@ -15827,7 +15855,7 @@
         <v>526</v>
       </c>
       <c r="D429" t="s">
-        <v>1090</v>
+        <v>1194</v>
       </c>
       <c r="E429">
         <v>-0.42712159999999988</v>
@@ -15853,7 +15881,7 @@
         <v>528</v>
       </c>
       <c r="D430" t="s">
-        <v>1091</v>
+        <v>1195</v>
       </c>
       <c r="E430">
         <v>-2.0732309999999998</v>
@@ -15879,7 +15907,7 @@
         <v>529</v>
       </c>
       <c r="D431" t="s">
-        <v>1092</v>
+        <v>1196</v>
       </c>
       <c r="E431">
         <v>-1.5378063</v>
@@ -15905,7 +15933,7 @@
         <v>530</v>
       </c>
       <c r="D432" t="s">
-        <v>1093</v>
+        <v>1197</v>
       </c>
       <c r="E432">
         <v>-1.9676499000000001</v>
@@ -15931,7 +15959,7 @@
         <v>531</v>
       </c>
       <c r="D433" t="s">
-        <v>1094</v>
+        <v>1198</v>
       </c>
       <c r="E433">
         <v>-0.45473694999999997</v>
@@ -15957,7 +15985,7 @@
         <v>533</v>
       </c>
       <c r="D434" t="s">
-        <v>1095</v>
+        <v>1199</v>
       </c>
       <c r="E434">
         <v>-0.79782825999999996</v>
@@ -15983,7 +16011,7 @@
         <v>534</v>
       </c>
       <c r="D435" t="s">
-        <v>1096</v>
+        <v>1200</v>
       </c>
       <c r="E435">
         <v>-0.72286459999999997</v>
@@ -16009,7 +16037,7 @@
         <v>535</v>
       </c>
       <c r="D436" t="s">
-        <v>1097</v>
+        <v>1201</v>
       </c>
       <c r="E436">
         <v>-0.884216</v>
@@ -16035,7 +16063,7 @@
         <v>536</v>
       </c>
       <c r="D437" t="s">
-        <v>1098</v>
+        <v>1202</v>
       </c>
       <c r="E437">
         <v>-6.9420919999999997E-2</v>
@@ -16061,7 +16089,7 @@
         <v>538</v>
       </c>
       <c r="D438" t="s">
-        <v>1099</v>
+        <v>1203</v>
       </c>
       <c r="E438">
         <v>-1.9819329000000001</v>
@@ -16087,7 +16115,7 @@
         <v>539</v>
       </c>
       <c r="D439" t="s">
-        <v>1100</v>
+        <v>1204</v>
       </c>
       <c r="E439">
         <v>-0.21819524000000001</v>
@@ -16113,7 +16141,7 @@
         <v>540</v>
       </c>
       <c r="D440" t="s">
-        <v>1101</v>
+        <v>1205</v>
       </c>
       <c r="E440">
         <v>-0.68396246000000005</v>
@@ -16139,7 +16167,7 @@
         <v>541</v>
       </c>
       <c r="D441" t="s">
-        <v>1102</v>
+        <v>1206</v>
       </c>
       <c r="E441">
         <v>-0.94063364999999999</v>
@@ -16165,7 +16193,7 @@
         <v>542</v>
       </c>
       <c r="D442" t="s">
-        <v>1103</v>
+        <v>1207</v>
       </c>
       <c r="E442">
         <v>-0.44054356</v>
@@ -16191,7 +16219,7 @@
         <v>543</v>
       </c>
       <c r="D443" t="s">
-        <v>1104</v>
+        <v>1208</v>
       </c>
       <c r="E443">
         <v>-0.40312088000000001</v>
@@ -16217,7 +16245,7 @@
         <v>545</v>
       </c>
       <c r="D444" t="s">
-        <v>1105</v>
+        <v>1209</v>
       </c>
       <c r="E444">
         <v>-1.8021100000000001</v>
@@ -16243,7 +16271,7 @@
         <v>547</v>
       </c>
       <c r="D445" t="s">
-        <v>1106</v>
+        <v>1210</v>
       </c>
       <c r="E445">
         <v>-0.91245365</v>
@@ -16269,7 +16297,7 @@
         <v>549</v>
       </c>
       <c r="D446" t="s">
-        <v>1107</v>
+        <v>1211</v>
       </c>
       <c r="E446">
         <v>-1.8982737000000001</v>
@@ -16295,7 +16323,7 @@
         <v>551</v>
       </c>
       <c r="D447" t="s">
-        <v>1108</v>
+        <v>1212</v>
       </c>
       <c r="E447">
         <v>-0.99049249999999989</v>
@@ -16321,7 +16349,7 @@
         <v>552</v>
       </c>
       <c r="D448" t="s">
-        <v>1109</v>
+        <v>1213</v>
       </c>
       <c r="E448">
         <v>-0.17226948</v>
@@ -16347,7 +16375,7 @@
         <v>553</v>
       </c>
       <c r="D449" t="s">
-        <v>1110</v>
+        <v>1214</v>
       </c>
       <c r="E449">
         <v>-0.38809749999999998</v>
@@ -16373,7 +16401,7 @@
         <v>555</v>
       </c>
       <c r="D450" t="s">
-        <v>1111</v>
+        <v>1215</v>
       </c>
       <c r="E450">
         <v>-0.62728024000000004</v>
@@ -16399,7 +16427,7 @@
         <v>556</v>
       </c>
       <c r="D451" t="s">
-        <v>1112</v>
+        <v>1216</v>
       </c>
       <c r="E451">
         <v>-0.11292171500000001</v>
@@ -16425,7 +16453,7 @@
         <v>558</v>
       </c>
       <c r="D452" t="s">
-        <v>1113</v>
+        <v>1217</v>
       </c>
       <c r="E452">
         <v>-1.4150157999999999</v>
@@ -16451,7 +16479,7 @@
         <v>559</v>
       </c>
       <c r="D453" t="s">
-        <v>1114</v>
+        <v>1218</v>
       </c>
       <c r="E453">
         <v>-0.92904854000000003</v>
@@ -16477,7 +16505,7 @@
         <v>560</v>
       </c>
       <c r="D454" t="s">
-        <v>1115</v>
+        <v>1219</v>
       </c>
       <c r="E454">
         <v>-0.66584739999999998</v>
@@ -16503,7 +16531,7 @@
         <v>561</v>
       </c>
       <c r="D455" t="s">
-        <v>1116</v>
+        <v>1220</v>
       </c>
       <c r="E455">
         <v>-0.21090287999999999</v>
@@ -16529,7 +16557,7 @@
         <v>562</v>
       </c>
       <c r="D456" t="s">
-        <v>1117</v>
+        <v>1221</v>
       </c>
       <c r="E456">
         <v>-0.7519188</v>
@@ -16555,7 +16583,7 @@
         <v>563</v>
       </c>
       <c r="D457" t="s">
-        <v>1118</v>
+        <v>1222</v>
       </c>
       <c r="E457">
         <v>-0.5777485</v>
@@ -16581,7 +16609,7 @@
         <v>564</v>
       </c>
       <c r="D458" t="s">
-        <v>1119</v>
+        <v>1223</v>
       </c>
       <c r="E458">
         <v>-4.5010604000000003E-2</v>
@@ -16607,7 +16635,7 @@
         <v>565</v>
       </c>
       <c r="D459" t="s">
-        <v>1120</v>
+        <v>1224</v>
       </c>
       <c r="E459">
         <v>-0.44054028000000001</v>
@@ -16633,7 +16661,7 @@
         <v>567</v>
       </c>
       <c r="D460" t="s">
-        <v>1121</v>
+        <v>1225</v>
       </c>
       <c r="E460">
         <v>-0.76376677000000004</v>
@@ -16659,7 +16687,7 @@
         <v>568</v>
       </c>
       <c r="D461" t="s">
-        <v>1122</v>
+        <v>1226</v>
       </c>
       <c r="E461">
         <v>-1.2449665999999999</v>
@@ -16685,7 +16713,7 @@
         <v>569</v>
       </c>
       <c r="D462" t="s">
-        <v>1123</v>
+        <v>1227</v>
       </c>
       <c r="E462">
         <v>-0.73805299999999996</v>
@@ -16711,7 +16739,7 @@
         <v>570</v>
       </c>
       <c r="D463" t="s">
-        <v>1124</v>
+        <v>1228</v>
       </c>
       <c r="E463">
         <v>-0.63551974</v>
@@ -16737,7 +16765,7 @@
         <v>572</v>
       </c>
       <c r="D464" t="s">
-        <v>1125</v>
+        <v>1229</v>
       </c>
       <c r="E464">
         <v>-0.23371743</v>
@@ -16763,7 +16791,7 @@
         <v>574</v>
       </c>
       <c r="D465" t="s">
-        <v>1126</v>
+        <v>1230</v>
       </c>
       <c r="E465">
         <v>-1.1778495</v>
@@ -16789,7 +16817,7 @@
         <v>575</v>
       </c>
       <c r="D466" t="s">
-        <v>1127</v>
+        <v>1231</v>
       </c>
       <c r="E466">
         <v>-1.0566062000000001</v>
@@ -16815,7 +16843,7 @@
         <v>576</v>
       </c>
       <c r="D467" t="s">
-        <v>1128</v>
+        <v>1232</v>
       </c>
       <c r="E467">
         <v>-0.26714534000000001</v>
@@ -16841,7 +16869,7 @@
         <v>577</v>
       </c>
       <c r="D468" t="s">
-        <v>1129</v>
+        <v>1233</v>
       </c>
       <c r="E468">
         <v>-0.91138709999999989</v>
@@ -16867,7 +16895,7 @@
         <v>579</v>
       </c>
       <c r="D469" t="s">
-        <v>1130</v>
+        <v>1234</v>
       </c>
       <c r="E469">
         <v>-0.18467919999999999</v>
@@ -16893,7 +16921,7 @@
         <v>580</v>
       </c>
       <c r="D470" t="s">
-        <v>1131</v>
+        <v>1235</v>
       </c>
       <c r="E470">
         <v>-0.34502178</v>
@@ -16919,7 +16947,7 @@
         <v>582</v>
       </c>
       <c r="D471" t="s">
-        <v>1132</v>
+        <v>1236</v>
       </c>
       <c r="E471">
         <v>-0.7006481</v>
@@ -16945,7 +16973,7 @@
         <v>583</v>
       </c>
       <c r="D472" t="s">
-        <v>1133</v>
+        <v>1237</v>
       </c>
       <c r="E472">
         <v>-2.0215155999999999</v>
@@ -16971,7 +16999,7 @@
         <v>584</v>
       </c>
       <c r="D473" t="s">
-        <v>1134</v>
+        <v>1238</v>
       </c>
       <c r="E473">
         <v>-0.89763515999999999</v>
@@ -16997,7 +17025,7 @@
         <v>586</v>
       </c>
       <c r="D474" t="s">
-        <v>1135</v>
+        <v>1239</v>
       </c>
       <c r="E474">
         <v>-1.4095538000000001</v>
@@ -17023,7 +17051,7 @@
         <v>587</v>
       </c>
       <c r="D475" t="s">
-        <v>1136</v>
+        <v>1240</v>
       </c>
       <c r="E475">
         <v>-1.9229670000000001</v>
@@ -17049,7 +17077,7 @@
         <v>589</v>
       </c>
       <c r="D476" t="s">
-        <v>1137</v>
+        <v>1241</v>
       </c>
       <c r="E476">
         <v>-1.6874857999999999</v>
@@ -17075,7 +17103,7 @@
         <v>590</v>
       </c>
       <c r="D477" t="s">
-        <v>1138</v>
+        <v>1242</v>
       </c>
       <c r="E477">
         <v>-1.9250761000000001</v>
@@ -17101,7 +17129,7 @@
         <v>591</v>
       </c>
       <c r="D478" t="s">
-        <v>1139</v>
+        <v>1243</v>
       </c>
       <c r="E478">
         <v>-1.6034731</v>
@@ -17127,7 +17155,7 @@
         <v>592</v>
       </c>
       <c r="D479" t="s">
-        <v>1140</v>
+        <v>1244</v>
       </c>
       <c r="E479">
         <v>-0.69550776000000003</v>
@@ -17153,7 +17181,7 @@
         <v>593</v>
       </c>
       <c r="D480" t="s">
-        <v>1141</v>
+        <v>1245</v>
       </c>
       <c r="E480">
         <v>-0.96491730000000009</v>
@@ -17179,7 +17207,7 @@
         <v>594</v>
       </c>
       <c r="D481" t="s">
-        <v>1142</v>
+        <v>1246</v>
       </c>
       <c r="E481">
         <v>-0.70551869999999994</v>
@@ -17205,7 +17233,7 @@
         <v>595</v>
       </c>
       <c r="D482" t="s">
-        <v>1143</v>
+        <v>1247</v>
       </c>
       <c r="E482">
         <v>-1.7007342999999999</v>
@@ -17231,7 +17259,7 @@
         <v>597</v>
       </c>
       <c r="D483" t="s">
-        <v>1144</v>
+        <v>1248</v>
       </c>
       <c r="E483">
         <v>-0.46945559999999997</v>
@@ -17257,7 +17285,7 @@
         <v>598</v>
       </c>
       <c r="D484" t="s">
-        <v>1145</v>
+        <v>1249</v>
       </c>
       <c r="E484">
         <v>-0.57180399999999998</v>
@@ -17283,7 +17311,7 @@
         <v>600</v>
       </c>
       <c r="D485" t="s">
-        <v>1146</v>
+        <v>1250</v>
       </c>
       <c r="E485">
         <v>-0.65234846000000002</v>
@@ -17309,7 +17337,7 @@
         <v>601</v>
       </c>
       <c r="D486" t="s">
-        <v>1147</v>
+        <v>1251</v>
       </c>
       <c r="E486">
         <v>-0.67684909999999998</v>
@@ -17335,7 +17363,7 @@
         <v>602</v>
       </c>
       <c r="D487" t="s">
-        <v>1148</v>
+        <v>1252</v>
       </c>
       <c r="E487">
         <v>-0.53105663999999997</v>
@@ -17361,7 +17389,7 @@
         <v>603</v>
       </c>
       <c r="D488" t="s">
-        <v>1149</v>
+        <v>1253</v>
       </c>
       <c r="E488">
         <v>-0.77622230000000003</v>
@@ -17387,7 +17415,7 @@
         <v>604</v>
       </c>
       <c r="D489" t="s">
-        <v>1150</v>
+        <v>1254</v>
       </c>
       <c r="E489">
         <v>8.929036999999999E-3</v>
@@ -17413,7 +17441,7 @@
         <v>606</v>
       </c>
       <c r="D490" t="s">
-        <v>1151</v>
+        <v>1255</v>
       </c>
       <c r="E490">
         <v>-0.94578300000000004</v>
@@ -17439,7 +17467,7 @@
         <v>607</v>
       </c>
       <c r="D491" t="s">
-        <v>1152</v>
+        <v>1256</v>
       </c>
       <c r="E491">
         <v>-1.4758183</v>
@@ -17465,7 +17493,7 @@
         <v>608</v>
       </c>
       <c r="D492" t="s">
-        <v>1153</v>
+        <v>1257</v>
       </c>
       <c r="E492">
         <v>-1.3368317000000001</v>
@@ -17491,7 +17519,7 @@
         <v>609</v>
       </c>
       <c r="D493" t="s">
-        <v>1154</v>
+        <v>1258</v>
       </c>
       <c r="E493">
         <v>-1.30227</v>
@@ -17517,7 +17545,7 @@
         <v>610</v>
       </c>
       <c r="D494" t="s">
-        <v>1155</v>
+        <v>1259</v>
       </c>
       <c r="E494">
         <v>-1.4910966000000001</v>
@@ -17543,7 +17571,7 @@
         <v>611</v>
       </c>
       <c r="D495" t="s">
-        <v>1156</v>
+        <v>1260</v>
       </c>
       <c r="E495">
         <v>-1.4123458</v>
@@ -17569,7 +17597,7 @@
         <v>612</v>
       </c>
       <c r="D496" t="s">
-        <v>1157</v>
+        <v>1261</v>
       </c>
       <c r="E496">
         <v>-1.0903307</v>
@@ -17595,7 +17623,7 @@
         <v>613</v>
       </c>
       <c r="D497" t="s">
-        <v>1158</v>
+        <v>1262</v>
       </c>
       <c r="E497">
         <v>-1.2012779</v>
@@ -17621,7 +17649,7 @@
         <v>614</v>
       </c>
       <c r="D498" t="s">
-        <v>1159</v>
+        <v>1263</v>
       </c>
       <c r="E498">
         <v>-1.7532547999999999</v>
@@ -17647,7 +17675,7 @@
         <v>615</v>
       </c>
       <c r="D499" t="s">
-        <v>1160</v>
+        <v>1264</v>
       </c>
       <c r="E499">
         <v>-1.5554889999999999</v>
@@ -17673,7 +17701,7 @@
         <v>616</v>
       </c>
       <c r="D500" t="s">
-        <v>1161</v>
+        <v>1265</v>
       </c>
       <c r="E500">
         <v>-1.6270418</v>
@@ -17699,7 +17727,7 @@
         <v>617</v>
       </c>
       <c r="D501" t="s">
-        <v>1162</v>
+        <v>1266</v>
       </c>
       <c r="E501">
         <v>-1.3907115000000001</v>
@@ -17725,7 +17753,7 @@
         <v>618</v>
       </c>
       <c r="D502" t="s">
-        <v>1163</v>
+        <v>618</v>
       </c>
       <c r="E502">
         <v>-1.5162252000000001</v>
@@ -17751,7 +17779,7 @@
         <v>619</v>
       </c>
       <c r="D503" t="s">
-        <v>1164</v>
+        <v>619</v>
       </c>
       <c r="E503">
         <v>-0.81428929999999999</v>
@@ -17777,7 +17805,7 @@
         <v>620</v>
       </c>
       <c r="D504" t="s">
-        <v>1165</v>
+        <v>620</v>
       </c>
       <c r="E504">
         <v>-1.1288849000000001</v>
@@ -17803,7 +17831,7 @@
         <v>621</v>
       </c>
       <c r="D505" t="s">
-        <v>1166</v>
+        <v>621</v>
       </c>
       <c r="E505">
         <v>-1.7941041</v>
@@ -17829,7 +17857,7 @@
         <v>622</v>
       </c>
       <c r="D506" t="s">
-        <v>1167</v>
+        <v>622</v>
       </c>
       <c r="E506">
         <v>-0.88348126000000005</v>
@@ -17855,7 +17883,7 @@
         <v>623</v>
       </c>
       <c r="D507" t="s">
-        <v>1168</v>
+        <v>623</v>
       </c>
       <c r="E507">
         <v>-0.78658897000000005</v>
@@ -17881,7 +17909,7 @@
         <v>624</v>
       </c>
       <c r="D508" t="s">
-        <v>1169</v>
+        <v>624</v>
       </c>
       <c r="E508">
         <v>-0.62773466</v>
@@ -17907,7 +17935,7 @@
         <v>625</v>
       </c>
       <c r="D509" t="s">
-        <v>1170</v>
+        <v>625</v>
       </c>
       <c r="E509">
         <v>-1.1897987000000001</v>
@@ -17933,7 +17961,7 @@
         <v>626</v>
       </c>
       <c r="D510" t="s">
-        <v>1171</v>
+        <v>626</v>
       </c>
       <c r="E510">
         <v>-1.3458022000000001</v>
@@ -17959,7 +17987,7 @@
         <v>627</v>
       </c>
       <c r="D511" t="s">
-        <v>1172</v>
+        <v>627</v>
       </c>
       <c r="E511">
         <v>-1.3281411000000001</v>
@@ -17985,7 +18013,7 @@
         <v>629</v>
       </c>
       <c r="D512" t="s">
-        <v>1173</v>
+        <v>629</v>
       </c>
       <c r="E512">
         <v>-6.2747300000000001E-3</v>
@@ -18011,7 +18039,7 @@
         <v>630</v>
       </c>
       <c r="D513" t="s">
-        <v>1174</v>
+        <v>630</v>
       </c>
       <c r="E513">
         <v>-0.69599019999999989</v>
@@ -18037,7 +18065,7 @@
         <v>631</v>
       </c>
       <c r="D514" t="s">
-        <v>1175</v>
+        <v>631</v>
       </c>
       <c r="E514">
         <v>-1.8512337000000001</v>
@@ -18063,7 +18091,7 @@
         <v>632</v>
       </c>
       <c r="D515" t="s">
-        <v>1176</v>
+        <v>632</v>
       </c>
       <c r="E515">
         <v>-0.3432827</v>
@@ -18089,7 +18117,7 @@
         <v>126</v>
       </c>
       <c r="D516" t="s">
-        <v>776</v>
+        <v>126</v>
       </c>
       <c r="E516">
         <v>-1.9929190999999999</v>
@@ -18115,7 +18143,7 @@
         <v>127</v>
       </c>
       <c r="D517" t="s">
-        <v>777</v>
+        <v>127</v>
       </c>
       <c r="E517">
         <v>-1.7035171</v>
@@ -18141,7 +18169,7 @@
         <v>128</v>
       </c>
       <c r="D518" t="s">
-        <v>778</v>
+        <v>128</v>
       </c>
       <c r="E518">
         <v>-1.1894666</v>
@@ -18167,7 +18195,7 @@
         <v>129</v>
       </c>
       <c r="D519" t="s">
-        <v>779</v>
+        <v>129</v>
       </c>
       <c r="E519">
         <v>-1.9195249000000001</v>
@@ -18193,7 +18221,7 @@
         <v>124</v>
       </c>
       <c r="D520" t="s">
-        <v>774</v>
+        <v>124</v>
       </c>
       <c r="E520">
         <v>-1.6583346000000001</v>
@@ -18219,7 +18247,7 @@
         <v>125</v>
       </c>
       <c r="D521" t="s">
-        <v>775</v>
+        <v>125</v>
       </c>
       <c r="E521">
         <v>-0.5393621999999999</v>
@@ -18245,7 +18273,7 @@
         <v>635</v>
       </c>
       <c r="D522" t="s">
-        <v>1177</v>
+        <v>635</v>
       </c>
       <c r="E522">
         <v>-1.9860579</v>
@@ -18271,7 +18299,7 @@
         <v>636</v>
       </c>
       <c r="D523" t="s">
-        <v>1178</v>
+        <v>636</v>
       </c>
       <c r="E523">
         <v>-1.9825596999999999</v>
@@ -18297,7 +18325,7 @@
         <v>638</v>
       </c>
       <c r="D524" t="s">
-        <v>1179</v>
+        <v>638</v>
       </c>
       <c r="E524">
         <v>-1.4810371</v>
@@ -18323,7 +18351,7 @@
         <v>639</v>
       </c>
       <c r="D525" t="s">
-        <v>1180</v>
+        <v>639</v>
       </c>
       <c r="E525">
         <v>-0.2755261</v>
@@ -18349,7 +18377,7 @@
         <v>641</v>
       </c>
       <c r="D526" t="s">
-        <v>1181</v>
+        <v>641</v>
       </c>
       <c r="E526">
         <v>-0.28447935000000002</v>
@@ -18375,7 +18403,7 @@
         <v>643</v>
       </c>
       <c r="D527" t="s">
-        <v>1182</v>
+        <v>643</v>
       </c>
       <c r="E527">
         <v>-1.0814109000000001</v>
@@ -18401,7 +18429,7 @@
         <v>644</v>
       </c>
       <c r="D528" t="s">
-        <v>1183</v>
+        <v>644</v>
       </c>
       <c r="E528">
         <v>-1.0873408</v>
@@ -18427,7 +18455,7 @@
         <v>645</v>
       </c>
       <c r="D529" t="s">
-        <v>1184</v>
+        <v>645</v>
       </c>
       <c r="E529">
         <v>-0.29028254999999997</v>
@@ -18453,7 +18481,7 @@
         <v>647</v>
       </c>
       <c r="D530" t="s">
-        <v>1185</v>
+        <v>647</v>
       </c>
       <c r="E530">
         <v>-1.4917524</v>
@@ -18479,7 +18507,7 @@
         <v>648</v>
       </c>
       <c r="D531" t="s">
-        <v>1186</v>
+        <v>648</v>
       </c>
       <c r="E531">
         <v>-1.8284571000000001</v>
@@ -18505,7 +18533,7 @@
         <v>649</v>
       </c>
       <c r="D532" t="s">
-        <v>1187</v>
+        <v>649</v>
       </c>
       <c r="E532">
         <v>-1.9264321</v>
@@ -18531,7 +18559,7 @@
         <v>650</v>
       </c>
       <c r="D533" t="s">
-        <v>1188</v>
+        <v>650</v>
       </c>
       <c r="E533">
         <v>-0.22168934000000001</v>
@@ -18557,7 +18585,7 @@
         <v>651</v>
       </c>
       <c r="D534" t="s">
-        <v>1189</v>
+        <v>651</v>
       </c>
       <c r="E534">
         <v>-2.0576553</v>
@@ -18583,7 +18611,7 @@
         <v>653</v>
       </c>
       <c r="D535" t="s">
-        <v>1190</v>
+        <v>653</v>
       </c>
       <c r="E535">
         <v>-0.57728540000000006</v>
@@ -18609,7 +18637,7 @@
         <v>654</v>
       </c>
       <c r="D536" t="s">
-        <v>1191</v>
+        <v>654</v>
       </c>
       <c r="E536">
         <v>-0.88793445000000004</v>
@@ -18635,7 +18663,7 @@
         <v>655</v>
       </c>
       <c r="D537" t="s">
-        <v>1192</v>
+        <v>655</v>
       </c>
       <c r="E537">
         <v>-1.3498235999999999</v>
@@ -18661,7 +18689,7 @@
         <v>657</v>
       </c>
       <c r="D538" t="s">
-        <v>1193</v>
+        <v>657</v>
       </c>
       <c r="E538">
         <v>-0.75699510000000003</v>
@@ -18687,7 +18715,7 @@
         <v>659</v>
       </c>
       <c r="D539" t="s">
-        <v>1194</v>
+        <v>659</v>
       </c>
       <c r="E539">
         <v>-1.9570694</v>
@@ -18713,7 +18741,7 @@
         <v>660</v>
       </c>
       <c r="D540" t="s">
-        <v>1195</v>
+        <v>660</v>
       </c>
       <c r="E540">
         <v>-1.6327399</v>
@@ -18739,7 +18767,7 @@
         <v>661</v>
       </c>
       <c r="D541" t="s">
-        <v>1196</v>
+        <v>661</v>
       </c>
       <c r="E541">
         <v>-1.9706714999999999</v>
@@ -18765,7 +18793,7 @@
         <v>662</v>
       </c>
       <c r="D542" t="s">
-        <v>1197</v>
+        <v>662</v>
       </c>
       <c r="E542">
         <v>-1.9764531000000001</v>
@@ -18791,7 +18819,7 @@
         <v>663</v>
       </c>
       <c r="D543" t="s">
-        <v>1198</v>
+        <v>663</v>
       </c>
       <c r="E543">
         <v>-2.0714092000000002</v>
@@ -18817,7 +18845,7 @@
         <v>664</v>
       </c>
       <c r="D544" t="s">
-        <v>1199</v>
+        <v>664</v>
       </c>
       <c r="E544">
         <v>-1.9441183</v>
@@ -18843,7 +18871,7 @@
         <v>665</v>
       </c>
       <c r="D545" t="s">
-        <v>1200</v>
+        <v>665</v>
       </c>
       <c r="E545">
         <v>-2.0413399999999999</v>
@@ -18869,7 +18897,7 @@
         <v>666</v>
       </c>
       <c r="D546" t="s">
-        <v>1201</v>
+        <v>666</v>
       </c>
       <c r="E546">
         <v>-2.0218180000000001</v>
@@ -18895,7 +18923,7 @@
         <v>667</v>
       </c>
       <c r="D547" t="s">
-        <v>1202</v>
+        <v>667</v>
       </c>
       <c r="E547">
         <v>-1.1629794</v>
@@ -18921,7 +18949,7 @@
         <v>669</v>
       </c>
       <c r="D548" t="s">
-        <v>1203</v>
+        <v>669</v>
       </c>
       <c r="E548">
         <v>-3.0873268999999998E-2</v>
@@ -18947,7 +18975,7 @@
         <v>671</v>
       </c>
       <c r="D549" t="s">
-        <v>1204</v>
+        <v>671</v>
       </c>
       <c r="E549">
         <v>-0.74011159999999998</v>
@@ -18973,7 +19001,7 @@
         <v>672</v>
       </c>
       <c r="D550" t="s">
-        <v>1205</v>
+        <v>672</v>
       </c>
       <c r="E550">
         <v>-0.54053430000000002</v>
@@ -18999,7 +19027,7 @@
         <v>673</v>
       </c>
       <c r="D551" t="s">
-        <v>1206</v>
+        <v>673</v>
       </c>
       <c r="E551">
         <v>-0.69229019999999997</v>
@@ -19025,7 +19053,7 @@
         <v>674</v>
       </c>
       <c r="D552" t="s">
-        <v>1207</v>
+        <v>674</v>
       </c>
       <c r="E552">
         <v>-1.1094573999999999</v>
@@ -19051,7 +19079,7 @@
         <v>675</v>
       </c>
       <c r="D553" t="s">
-        <v>1208</v>
+        <v>675</v>
       </c>
       <c r="E553">
         <v>-0.57391459999999994</v>
@@ -19077,7 +19105,7 @@
         <v>677</v>
       </c>
       <c r="D554" t="s">
-        <v>1209</v>
+        <v>677</v>
       </c>
       <c r="E554">
         <v>-0.73435669999999986</v>
@@ -19103,7 +19131,7 @@
         <v>678</v>
       </c>
       <c r="D555" t="s">
-        <v>1210</v>
+        <v>678</v>
       </c>
       <c r="E555">
         <v>-0.85676170000000007</v>
@@ -19129,7 +19157,7 @@
         <v>679</v>
       </c>
       <c r="D556" t="s">
-        <v>1211</v>
+        <v>679</v>
       </c>
       <c r="E556">
         <v>-5.3491459999999998E-2</v>
@@ -19155,7 +19183,7 @@
         <v>681</v>
       </c>
       <c r="D557" t="s">
-        <v>1212</v>
+        <v>681</v>
       </c>
       <c r="E557">
         <v>1.3028249E-2</v>
@@ -19181,7 +19209,7 @@
         <v>683</v>
       </c>
       <c r="D558" t="s">
-        <v>1213</v>
+        <v>683</v>
       </c>
       <c r="E558">
         <v>-1.3089257000000001</v>
@@ -19207,7 +19235,7 @@
         <v>684</v>
       </c>
       <c r="D559" t="s">
-        <v>1214</v>
+        <v>684</v>
       </c>
       <c r="E559">
         <v>-1.3119965</v>
@@ -19233,7 +19261,7 @@
         <v>685</v>
       </c>
       <c r="D560" t="s">
-        <v>1215</v>
+        <v>685</v>
       </c>
       <c r="E560">
         <v>-1.2621313000000001</v>
@@ -19259,7 +19287,7 @@
         <v>686</v>
       </c>
       <c r="D561" t="s">
-        <v>1216</v>
+        <v>686</v>
       </c>
       <c r="E561">
         <v>-0.71109325000000001</v>
@@ -19285,7 +19313,7 @@
         <v>688</v>
       </c>
       <c r="D562" t="s">
-        <v>1217</v>
+        <v>688</v>
       </c>
       <c r="E562">
         <v>-2.0565709999999999</v>
@@ -19311,7 +19339,7 @@
         <v>689</v>
       </c>
       <c r="D563" t="s">
-        <v>1218</v>
+        <v>689</v>
       </c>
       <c r="E563">
         <v>-1.9813113</v>
@@ -19337,7 +19365,7 @@
         <v>690</v>
       </c>
       <c r="D564" t="s">
-        <v>1219</v>
+        <v>690</v>
       </c>
       <c r="E564">
         <v>-0.48819086</v>
@@ -19363,7 +19391,7 @@
         <v>691</v>
       </c>
       <c r="D565" t="s">
-        <v>1220</v>
+        <v>691</v>
       </c>
       <c r="E565">
         <v>-0.40530533000000002</v>
@@ -19389,7 +19417,7 @@
         <v>692</v>
       </c>
       <c r="D566" t="s">
-        <v>1221</v>
+        <v>692</v>
       </c>
       <c r="E566">
         <v>-0.32890380000000002</v>
@@ -19415,7 +19443,7 @@
         <v>693</v>
       </c>
       <c r="D567" t="s">
-        <v>1222</v>
+        <v>693</v>
       </c>
       <c r="E567">
         <v>-2.0087142</v>
@@ -19441,7 +19469,7 @@
         <v>694</v>
       </c>
       <c r="D568" t="s">
-        <v>1223</v>
+        <v>694</v>
       </c>
       <c r="E568">
         <v>-1.958839</v>
@@ -19467,7 +19495,7 @@
         <v>695</v>
       </c>
       <c r="D569" t="s">
-        <v>1224</v>
+        <v>695</v>
       </c>
       <c r="E569">
         <v>-1.9707977000000001</v>
@@ -19493,7 +19521,7 @@
         <v>499</v>
       </c>
       <c r="D570" t="s">
-        <v>1225</v>
+        <v>499</v>
       </c>
       <c r="E570">
         <v>-0.26428067999999999</v>
@@ -19519,7 +19547,7 @@
         <v>494</v>
       </c>
       <c r="D571" t="s">
-        <v>1226</v>
+        <v>494</v>
       </c>
       <c r="E571">
         <v>-1.9026928000000001</v>
@@ -19545,7 +19573,7 @@
         <v>495</v>
       </c>
       <c r="D572" t="s">
-        <v>1063</v>
+        <v>495</v>
       </c>
       <c r="E572">
         <v>-1.9077249999999999</v>
@@ -19571,7 +19599,7 @@
         <v>697</v>
       </c>
       <c r="D573" t="s">
-        <v>1227</v>
+        <v>697</v>
       </c>
       <c r="E573">
         <v>-1.7741473000000001</v>
@@ -19597,7 +19625,7 @@
         <v>698</v>
       </c>
       <c r="D574" t="s">
-        <v>1228</v>
+        <v>698</v>
       </c>
       <c r="E574">
         <v>-2.0472364000000001</v>
@@ -19623,7 +19651,7 @@
         <v>496</v>
       </c>
       <c r="D575" t="s">
-        <v>1229</v>
+        <v>496</v>
       </c>
       <c r="E575">
         <v>-1.7914866</v>
@@ -19649,7 +19677,7 @@
         <v>699</v>
       </c>
       <c r="D576" t="s">
-        <v>1230</v>
+        <v>699</v>
       </c>
       <c r="E576">
         <v>-1.7579355000000001</v>
@@ -19675,7 +19703,7 @@
         <v>497</v>
       </c>
       <c r="D577" t="s">
-        <v>1231</v>
+        <v>497</v>
       </c>
       <c r="E577">
         <v>-1.9972148000000001</v>
@@ -19701,7 +19729,7 @@
         <v>498</v>
       </c>
       <c r="D578" t="s">
-        <v>1066</v>
+        <v>498</v>
       </c>
       <c r="E578">
         <v>-1.8760540000000001</v>
@@ -19727,7 +19755,7 @@
         <v>700</v>
       </c>
       <c r="D579" t="s">
-        <v>1232</v>
+        <v>700</v>
       </c>
       <c r="E579">
         <v>-1.7458849000000001</v>
@@ -19753,7 +19781,7 @@
         <v>701</v>
       </c>
       <c r="D580" t="s">
-        <v>1233</v>
+        <v>701</v>
       </c>
       <c r="E580">
         <v>-1.0611339</v>
@@ -19779,7 +19807,7 @@
         <v>702</v>
       </c>
       <c r="D581" t="s">
-        <v>1234</v>
+        <v>702</v>
       </c>
       <c r="E581">
         <v>-1.7365234000000001</v>
@@ -19805,7 +19833,7 @@
         <v>703</v>
       </c>
       <c r="D582" t="s">
-        <v>1235</v>
+        <v>703</v>
       </c>
       <c r="E582">
         <v>-1.8202844</v>
@@ -19831,7 +19859,7 @@
         <v>704</v>
       </c>
       <c r="D583" t="s">
-        <v>1236</v>
+        <v>704</v>
       </c>
       <c r="E583">
         <v>-1.9092290000000001</v>
@@ -19857,7 +19885,7 @@
         <v>706</v>
       </c>
       <c r="D584" t="s">
-        <v>1237</v>
+        <v>706</v>
       </c>
       <c r="E584">
         <v>1.2797265999999999E-3</v>
@@ -19883,7 +19911,7 @@
         <v>708</v>
       </c>
       <c r="D585" t="s">
-        <v>1238</v>
+        <v>708</v>
       </c>
       <c r="E585">
         <v>-1.3798307999999999</v>
@@ -19909,7 +19937,7 @@
         <v>709</v>
       </c>
       <c r="D586" t="s">
-        <v>1239</v>
+        <v>709</v>
       </c>
       <c r="E586">
         <v>-1.6306498</v>
@@ -19935,7 +19963,7 @@
         <v>710</v>
       </c>
       <c r="D587" t="s">
-        <v>1240</v>
+        <v>710</v>
       </c>
       <c r="E587">
         <v>-1.8406956000000001</v>
@@ -19961,7 +19989,7 @@
         <v>602</v>
       </c>
       <c r="D588" t="s">
-        <v>1148</v>
+        <v>602</v>
       </c>
       <c r="E588">
         <v>-0.86930525000000003</v>
@@ -19987,7 +20015,7 @@
         <v>713</v>
       </c>
       <c r="D589" t="s">
-        <v>1241</v>
+        <v>713</v>
       </c>
       <c r="E589">
         <v>-1.139929</v>
@@ -20013,7 +20041,7 @@
         <v>714</v>
       </c>
       <c r="D590" t="s">
-        <v>1242</v>
+        <v>714</v>
       </c>
       <c r="E590">
         <v>-0.82646023999999996</v>
@@ -20039,7 +20067,7 @@
         <v>715</v>
       </c>
       <c r="D591" t="s">
-        <v>1243</v>
+        <v>715</v>
       </c>
       <c r="E591">
         <v>-0.68780959999999991</v>
@@ -20065,7 +20093,7 @@
         <v>716</v>
       </c>
       <c r="D592" t="s">
-        <v>1244</v>
+        <v>716</v>
       </c>
       <c r="E592">
         <v>-0.49645655999999999</v>
@@ -20091,7 +20119,7 @@
         <v>717</v>
       </c>
       <c r="D593" t="s">
-        <v>1245</v>
+        <v>717</v>
       </c>
       <c r="E593">
         <v>-1.3482177</v>
@@ -20117,7 +20145,7 @@
         <v>718</v>
       </c>
       <c r="D594" t="s">
-        <v>1246</v>
+        <v>718</v>
       </c>
       <c r="E594">
         <v>-1.2870235000000001</v>
@@ -20143,7 +20171,7 @@
         <v>719</v>
       </c>
       <c r="D595" t="s">
-        <v>1247</v>
+        <v>719</v>
       </c>
       <c r="E595">
         <v>-0.59986733999999997</v>
@@ -20169,7 +20197,7 @@
         <v>720</v>
       </c>
       <c r="D596" t="s">
-        <v>1248</v>
+        <v>720</v>
       </c>
       <c r="E596">
         <v>-1.0371885999999999</v>
@@ -20195,7 +20223,7 @@
         <v>722</v>
       </c>
       <c r="D597" t="s">
-        <v>1249</v>
+        <v>722</v>
       </c>
       <c r="E597">
         <v>-1.3532725999999999</v>
@@ -20221,7 +20249,7 @@
         <v>723</v>
       </c>
       <c r="D598" t="s">
-        <v>1250</v>
+        <v>723</v>
       </c>
       <c r="E598">
         <v>-1.2520013999999999</v>
@@ -20247,7 +20275,7 @@
         <v>724</v>
       </c>
       <c r="D599" t="s">
-        <v>1251</v>
+        <v>724</v>
       </c>
       <c r="E599">
         <v>-0.75455826999999998</v>
@@ -20273,7 +20301,7 @@
         <v>726</v>
       </c>
       <c r="D600" t="s">
-        <v>1252</v>
+        <v>726</v>
       </c>
       <c r="E600">
         <v>-0.40185275999999998</v>
@@ -20299,7 +20327,7 @@
         <v>727</v>
       </c>
       <c r="D601" t="s">
-        <v>1253</v>
+        <v>727</v>
       </c>
       <c r="E601">
         <v>-1.7594479999999999</v>
@@ -20325,7 +20353,7 @@
         <v>728</v>
       </c>
       <c r="D602" t="s">
-        <v>1254</v>
+        <v>728</v>
       </c>
       <c r="E602">
         <v>-0.88323609999999986</v>
@@ -20351,7 +20379,7 @@
         <v>729</v>
       </c>
       <c r="D603" t="s">
-        <v>1255</v>
+        <v>729</v>
       </c>
       <c r="E603">
         <v>-1.4322893999999999</v>
@@ -20377,7 +20405,7 @@
         <v>731</v>
       </c>
       <c r="D604" t="s">
-        <v>1256</v>
+        <v>731</v>
       </c>
       <c r="E604">
         <v>-1.6265292</v>
@@ -20403,7 +20431,7 @@
         <v>732</v>
       </c>
       <c r="D605" t="s">
-        <v>1257</v>
+        <v>732</v>
       </c>
       <c r="E605">
         <v>-1.4672523</v>
@@ -20429,7 +20457,7 @@
         <v>734</v>
       </c>
       <c r="D606" t="s">
-        <v>1258</v>
+        <v>734</v>
       </c>
       <c r="E606">
         <v>-0.66516580000000003</v>
@@ -20455,7 +20483,7 @@
         <v>735</v>
       </c>
       <c r="D607" t="s">
-        <v>1259</v>
+        <v>735</v>
       </c>
       <c r="E607">
         <v>-0.15283799000000001</v>
@@ -20481,7 +20509,7 @@
         <v>736</v>
       </c>
       <c r="D608" t="s">
-        <v>1260</v>
+        <v>736</v>
       </c>
       <c r="E608">
         <v>-0.90054380000000001</v>
@@ -20507,7 +20535,7 @@
         <v>737</v>
       </c>
       <c r="D609" t="s">
-        <v>1261</v>
+        <v>737</v>
       </c>
       <c r="E609">
         <v>-0.39427637999999998</v>
@@ -20533,7 +20561,7 @@
         <v>739</v>
       </c>
       <c r="D610" t="s">
-        <v>1262</v>
+        <v>739</v>
       </c>
       <c r="E610">
         <v>-1.6748866</v>
@@ -20559,7 +20587,7 @@
         <v>741</v>
       </c>
       <c r="D611" t="s">
-        <v>1263</v>
+        <v>741</v>
       </c>
       <c r="E611">
         <v>-0.14231263</v>
@@ -20585,7 +20613,7 @@
         <v>742</v>
       </c>
       <c r="D612" t="s">
-        <v>1264</v>
+        <v>742</v>
       </c>
       <c r="E612">
         <v>-0.64265469999999991</v>
@@ -20611,7 +20639,7 @@
         <v>743</v>
       </c>
       <c r="D613" t="s">
-        <v>1265</v>
+        <v>743</v>
       </c>
       <c r="E613">
         <v>-0.83047645999999997</v>
@@ -20637,7 +20665,7 @@
         <v>744</v>
       </c>
       <c r="D614" t="s">
-        <v>1266</v>
+        <v>744</v>
       </c>
       <c r="E614">
         <v>-0.23404444999999999</v>
@@ -20663,7 +20691,7 @@
         <v>745</v>
       </c>
       <c r="D615" t="s">
-        <v>1267</v>
+        <v>745</v>
       </c>
       <c r="E615">
         <v>-0.88410412999999999</v>
@@ -20689,7 +20717,7 @@
         <v>746</v>
       </c>
       <c r="D616" t="s">
-        <v>1268</v>
+        <v>746</v>
       </c>
       <c r="E616">
         <v>-0.18951950000000001</v>
@@ -20715,7 +20743,7 @@
         <v>747</v>
       </c>
       <c r="D617" t="s">
-        <v>1269</v>
+        <v>747</v>
       </c>
       <c r="E617">
         <v>-1.1843276</v>
@@ -20741,7 +20769,7 @@
         <v>748</v>
       </c>
       <c r="D618" t="s">
-        <v>1270</v>
+        <v>748</v>
       </c>
       <c r="E618">
         <v>-0.39939833000000002</v>
@@ -20767,7 +20795,7 @@
         <v>749</v>
       </c>
       <c r="D619" t="s">
-        <v>1271</v>
+        <v>749</v>
       </c>
       <c r="E619">
         <v>-0.58555619999999997</v>
@@ -20793,7 +20821,7 @@
         <v>750</v>
       </c>
       <c r="D620" t="s">
-        <v>1272</v>
+        <v>750</v>
       </c>
       <c r="E620">
         <v>-0.55802136999999996</v>
@@ -20819,7 +20847,7 @@
         <v>751</v>
       </c>
       <c r="D621" t="s">
-        <v>1273</v>
+        <v>751</v>
       </c>
       <c r="E621">
         <v>-0.64309596999999996</v>
@@ -20845,7 +20873,7 @@
         <v>752</v>
       </c>
       <c r="D622" t="s">
-        <v>1274</v>
+        <v>752</v>
       </c>
       <c r="E622">
         <v>-1.0704290000000001</v>
@@ -20871,7 +20899,7 @@
         <v>753</v>
       </c>
       <c r="D623" t="s">
-        <v>1275</v>
+        <v>753</v>
       </c>
       <c r="E623">
         <v>-0.7360314</v>
@@ -20897,7 +20925,7 @@
         <v>754</v>
       </c>
       <c r="D624" t="s">
-        <v>1276</v>
+        <v>754</v>
       </c>
       <c r="E624">
         <v>-0.9356530999999999</v>
@@ -20915,6 +20943,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>